--- a/assets/BidimensionalDistribuciónProb.xlsx
+++ b/assets/BidimensionalDistribuciónProb.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Universidad\Sexto Semestre\Probabilidad\MapaHtml\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D2B7E3-04A1-4A22-A9F9-832A16F41674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3843F8E-B98D-46F3-AA4B-0C51F353804D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XY independientes" sheetId="1" r:id="rId1"/>
     <sheet name="XY dependientes" sheetId="2" r:id="rId2"/>
     <sheet name="DivEscalarMatriz" sheetId="3" r:id="rId3"/>
     <sheet name="TareaForo_2" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="33">
   <si>
     <r>
       <rPr>
@@ -147,6 +148,15 @@
   <si>
     <t>Correlaciòn Pearson</t>
   </si>
+  <si>
+    <t xml:space="preserve">X↓ Y→ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Se creo la siguiente grafica donde podemos apreciar que en el punto donde la distribucion de probabilidad continua es mayor el plano posee mayor altura. Ademas, podemos apreciar que la grafica tiene mas elevacion conforme Y es mayor, de acuerdo a lo esperado por la covarianza y el coeficiente de Pearson ya que estos valores son negativos indicando una dependencia inversa</t>
+  </si>
 </sst>
 </file>
 
@@ -161,7 +171,7 @@
     <numFmt numFmtId="169" formatCode="0.0000"/>
     <numFmt numFmtId="170" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -298,8 +308,16 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,8 +456,14 @@
         <bgColor rgb="FFF7D1D5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -587,6 +611,186 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -608,240 +812,429 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="20" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="24" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="22" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="22" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="23" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="20" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="14" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="14" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -943,6 +1336,1520 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.8275632401243166E-2"/>
+          <c:y val="5.2159277110849465E-2"/>
+          <c:w val="0.88580565807239964"/>
+          <c:h val="0.87305510760696792"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="53000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="53000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="53000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E70-43BB-BB48-9A895D9D20E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="76000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="76000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="76000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7E70-43BB-BB48-9A895D9D20E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7E70-43BB-BB48-9A895D9D20E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:tint val="77000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:tint val="77000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:tint val="77000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7E70-43BB-BB48-9A895D9D20E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:tint val="54000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:tint val="54000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:tint val="54000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7E70-43BB-BB48-9A895D9D20E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="44000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="44000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="44000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="58000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="58000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="58000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="72000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="72000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="72000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="86000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="86000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="86000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="86000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="86000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="86000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="72000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="72000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="72000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="58000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="58000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="58000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="44000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="44000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="44000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="30000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="30000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="30000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="16000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="16000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="16000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="2000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="2000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="2000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="88000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="88000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="88000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="74000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="74000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="74000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="258652335"/>
+        <c:axId val="258652751"/>
+        <c:axId val="405311839"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="258652335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="258652751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="258652751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>F(x,y) = 2x + 5y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="258652335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="405311839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="258652751"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>231402</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>4482</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36C0BFE1-2092-407A-84F7-B9AEBC66D0B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1245,7 +3152,7 @@
   <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+      <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1268,687 +3175,687 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11">
+      <c r="B1" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="11">
+      <c r="D1" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="11">
+      <c r="F1" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="11">
+      <c r="J1" s="2">
         <v>1</v>
       </c>
-      <c r="K1" s="11">
+      <c r="K1" s="2">
         <v>2</v>
       </c>
-      <c r="L1" s="11">
+      <c r="L1" s="2">
         <v>3</v>
       </c>
-      <c r="M1" s="11">
+      <c r="M1" s="2">
         <v>4</v>
       </c>
-      <c r="N1" s="11">
+      <c r="N1" s="2">
         <v>5</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="10" t="s">
+      <c r="P1" s="5"/>
+      <c r="Q1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="11">
+      <c r="R1" s="2">
         <v>1</v>
       </c>
-      <c r="S1" s="11">
+      <c r="S1" s="2">
         <v>2</v>
       </c>
-      <c r="T1" s="11">
+      <c r="T1" s="2">
         <v>3</v>
       </c>
-      <c r="U1" s="11">
+      <c r="U1" s="2">
         <v>4</v>
       </c>
-      <c r="V1" s="11">
+      <c r="V1" s="2">
         <v>5</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="10" t="s">
+      <c r="X1" s="3"/>
+      <c r="Y1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="11">
+      <c r="Z1" s="2">
         <v>1</v>
       </c>
-      <c r="AA1" s="11">
+      <c r="AA1" s="2">
         <v>2</v>
       </c>
-      <c r="AB1" s="11">
+      <c r="AB1" s="2">
         <v>3</v>
       </c>
-      <c r="AC1" s="11">
+      <c r="AC1" s="2">
         <v>4</v>
       </c>
-      <c r="AD1" s="11">
+      <c r="AD1" s="2">
         <v>5</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AE1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="1">
         <f>$A$2*B$1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="1">
         <f>$A$2*C$1</f>
         <v>2</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="1">
         <f>$A$2*D$1</f>
         <v>3</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="1">
         <f>$A$2*E$1</f>
         <v>4</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="1">
         <f>$A$2*F$1</f>
         <v>5</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="7">
         <f>SUM(B2:F2)</f>
         <v>15</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="15">
+      <c r="H2" s="4"/>
+      <c r="I2" s="6">
         <v>1</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="8">
         <f>($A$2*J$1)/150</f>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="8">
         <f>($A$2*K$1)/150</f>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="8">
         <f>($A$2*L$1)/150</f>
         <v>0.02</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="8">
         <f>($A$2*M$1)/150</f>
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="8">
         <f>($A$2*N$1)/150</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="9">
         <f>SUM(J2:N2)</f>
         <v>0.1</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="15">
+      <c r="P2" s="10"/>
+      <c r="Q2" s="6">
         <v>1</v>
       </c>
-      <c r="R2" s="20">
+      <c r="R2" s="11">
         <f>($A$2*R$1)/150</f>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="S2" s="20">
+      <c r="S2" s="11">
         <f>($A$2*S$1)/150</f>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="T2" s="20">
+      <c r="T2" s="11">
         <f>($A$2*T$1)/150</f>
         <v>0.02</v>
       </c>
-      <c r="U2" s="20">
+      <c r="U2" s="11">
         <f>($A$2*U$1)/150</f>
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="V2" s="20">
+      <c r="V2" s="11">
         <f>($A$2*V$1)/150</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="W2" s="21">
+      <c r="W2" s="12">
         <f>SUM(R2:V2)</f>
         <v>0.1</v>
       </c>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="15">
+      <c r="X2" s="8"/>
+      <c r="Y2" s="6">
         <v>1</v>
       </c>
-      <c r="Z2" s="20">
+      <c r="Z2" s="11">
         <f>Z$6*$AE$2</f>
         <v>6.6666666666666697E-3</v>
       </c>
-      <c r="AA2" s="20">
+      <c r="AA2" s="11">
         <f>AA$6*$AE$2</f>
         <v>1.3333333333333301E-2</v>
       </c>
-      <c r="AB2" s="20">
+      <c r="AB2" s="11">
         <f>AB$6*$AE$2</f>
         <v>2.0000000000000004E-2</v>
       </c>
-      <c r="AC2" s="20">
+      <c r="AC2" s="11">
         <f>AC$6*$AE$2</f>
         <v>2.66666666666667E-2</v>
       </c>
-      <c r="AD2" s="20">
+      <c r="AD2" s="11">
         <f>AD$6*$AE$2</f>
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="AE2" s="21">
+      <c r="AE2" s="12">
         <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="1">
         <f>$A$3*B$1</f>
         <v>2</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="1">
         <f>$A$3*C$1</f>
         <v>4</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="1">
         <f>$A$3*D$1</f>
         <v>6</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="1">
         <f>$A$3*E$1</f>
         <v>8</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="1">
         <f>$A$3*F$1</f>
         <v>10</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="7">
         <f>SUM(B3:F3)</f>
         <v>30</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="15">
+      <c r="H3" s="4"/>
+      <c r="I3" s="6">
         <v>2</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="8">
         <f>($A$3*J$1)/150</f>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="8">
         <f>($A$3*K$1)/150</f>
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="8">
         <f>($A$3*L$1)/150</f>
         <v>0.04</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="8">
         <f>($A$3*M$1)/150</f>
         <v>5.3333333333333337E-2</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="8">
         <f>($A$3*N$1)/150</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="9">
         <f>SUM(J3:N3)</f>
         <v>0.2</v>
       </c>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="15">
+      <c r="P3" s="10"/>
+      <c r="Q3" s="6">
         <v>2</v>
       </c>
-      <c r="R3" s="20">
+      <c r="R3" s="11">
         <f>($A$3*R$1)/150</f>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="S3" s="20">
+      <c r="S3" s="11">
         <f>($A$3*S$1)/150</f>
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="T3" s="20">
+      <c r="T3" s="11">
         <f>($A$3*T$1)/150</f>
         <v>0.04</v>
       </c>
-      <c r="U3" s="20">
+      <c r="U3" s="11">
         <f>($A$3*U$1)/150</f>
         <v>5.3333333333333337E-2</v>
       </c>
-      <c r="V3" s="20">
+      <c r="V3" s="11">
         <f>($A$3*V$1)/150</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="W3" s="21">
+      <c r="W3" s="12">
         <f>SUM(R3:V3)</f>
         <v>0.2</v>
       </c>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="15">
+      <c r="X3" s="8"/>
+      <c r="Y3" s="6">
         <v>2</v>
       </c>
-      <c r="Z3" s="20">
+      <c r="Z3" s="11">
         <f>Z$6*$AE$3</f>
         <v>1.3333333333333339E-2</v>
       </c>
-      <c r="AA3" s="20">
+      <c r="AA3" s="11">
         <f>AA$6*$AE$3</f>
         <v>2.6666666666666602E-2</v>
       </c>
-      <c r="AB3" s="20">
+      <c r="AB3" s="11">
         <f>AB$6*$AE$3</f>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="AC3" s="20">
+      <c r="AC3" s="11">
         <f>AC$6*$AE$3</f>
         <v>5.3333333333333399E-2</v>
       </c>
-      <c r="AD3" s="20">
+      <c r="AD3" s="11">
         <f>AD$6*$AE$3</f>
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="AE3" s="21">
+      <c r="AE3" s="12">
         <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="1">
         <f>$A$4*B$1</f>
         <v>3</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="1">
         <f>$A$4*C$1</f>
         <v>6</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="1">
         <f>$A$4*D$1</f>
         <v>9</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="1">
         <f>$A$4*E$1</f>
         <v>12</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="1">
         <f>$A$4*F$1</f>
         <v>15</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="7">
         <f>SUM(B4:F4)</f>
         <v>45</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="15">
+      <c r="H4" s="4"/>
+      <c r="I4" s="6">
         <v>3</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="8">
         <f>$A$4*J$1/150</f>
         <v>0.02</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="8">
         <f>$A$4*K$1/150</f>
         <v>0.04</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="8">
         <f>$A$4*L$1/150</f>
         <v>0.06</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="8">
         <f>$A$4*M$1/150</f>
         <v>0.08</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="8">
         <f>$A$4*N$1/150</f>
         <v>0.1</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="9">
         <f>SUM(J4:N4)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="15">
+      <c r="P4" s="10"/>
+      <c r="Q4" s="6">
         <v>3</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4" s="11">
         <f>$A$4*R$1/150</f>
         <v>0.02</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4" s="11">
         <f>$A$4*S$1/150</f>
         <v>0.04</v>
       </c>
-      <c r="T4" s="20">
+      <c r="T4" s="11">
         <f>$A$4*T$1/150</f>
         <v>0.06</v>
       </c>
-      <c r="U4" s="20">
+      <c r="U4" s="11">
         <f>$A$4*U$1/150</f>
         <v>0.08</v>
       </c>
-      <c r="V4" s="20">
+      <c r="V4" s="11">
         <f>$A$4*V$1/150</f>
         <v>0.1</v>
       </c>
-      <c r="W4" s="21">
+      <c r="W4" s="12">
         <f>SUM(R4:V4)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="15">
+      <c r="X4" s="8"/>
+      <c r="Y4" s="6">
         <v>3</v>
       </c>
-      <c r="Z4" s="20">
+      <c r="Z4" s="11">
         <f>Z$6*$AE$4</f>
         <v>2.0000000000000007E-2</v>
       </c>
-      <c r="AA4" s="20">
+      <c r="AA4" s="11">
         <f>AA$6*$AE$4</f>
         <v>3.9999999999999897E-2</v>
       </c>
-      <c r="AB4" s="20">
+      <c r="AB4" s="11">
         <f>AB$6*$AE$4</f>
         <v>0.06</v>
       </c>
-      <c r="AC4" s="20">
+      <c r="AC4" s="11">
         <f>AC$6*$AE$4</f>
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="AD4" s="20">
+      <c r="AD4" s="11">
         <f>AD$6*$AE$4</f>
         <v>9.9999999999999895E-2</v>
       </c>
-      <c r="AE4" s="21">
+      <c r="AE4" s="12">
         <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="1">
         <f>$A$5*B$1</f>
         <v>4</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="1">
         <f>$A$5*C$1</f>
         <v>8</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="1">
         <f>$A$5*D$1</f>
         <v>12</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="1">
         <f>$A$5*E$1</f>
         <v>16</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="1">
         <f>$A$5*F$1</f>
         <v>20</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="7">
         <f>SUM(B5:F5)</f>
         <v>60</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="15">
+      <c r="H5" s="4"/>
+      <c r="I5" s="6">
         <v>4</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="8">
         <f>$A$5*J$1/150</f>
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="8">
         <f>$A$5*K$1/150</f>
         <v>5.3333333333333337E-2</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="8">
         <f>$A$5*L$1/150</f>
         <v>0.08</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="8">
         <f>$A$5*M$1/150</f>
         <v>0.10666666666666667</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="8">
         <f>$A$5*N$1/150</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="9">
         <f>SUM(J5:N5)</f>
         <v>0.4</v>
       </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="15">
+      <c r="P5" s="10"/>
+      <c r="Q5" s="6">
         <v>4</v>
       </c>
-      <c r="R5" s="20">
+      <c r="R5" s="11">
         <f>$A$5*R$1/150</f>
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="S5" s="20">
+      <c r="S5" s="11">
         <f>$A$5*S$1/150</f>
         <v>5.3333333333333337E-2</v>
       </c>
-      <c r="T5" s="20">
+      <c r="T5" s="11">
         <f>$A$5*T$1/150</f>
         <v>0.08</v>
       </c>
-      <c r="U5" s="20">
+      <c r="U5" s="11">
         <f>$A$5*U$1/150</f>
         <v>0.10666666666666667</v>
       </c>
-      <c r="V5" s="20">
+      <c r="V5" s="11">
         <f>$A$5*V$1/150</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="W5" s="21">
+      <c r="W5" s="12">
         <f>SUM(R5:V5)</f>
         <v>0.4</v>
       </c>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="15">
+      <c r="X5" s="8"/>
+      <c r="Y5" s="6">
         <v>4</v>
       </c>
-      <c r="Z5" s="20">
+      <c r="Z5" s="11">
         <f>Z$6*$AE$5</f>
         <v>2.6666666666666679E-2</v>
       </c>
-      <c r="AA5" s="20">
+      <c r="AA5" s="11">
         <f>AA$6*$AE$5</f>
         <v>5.3333333333333205E-2</v>
       </c>
-      <c r="AB5" s="20">
+      <c r="AB5" s="11">
         <f>AB$6*$AE$5</f>
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="AC5" s="20">
+      <c r="AC5" s="11">
         <f>AC$6*$AE$5</f>
         <v>0.1066666666666668</v>
       </c>
-      <c r="AD5" s="20">
+      <c r="AD5" s="11">
         <f>AD$6*$AE$5</f>
         <v>0.13333333333333319</v>
       </c>
-      <c r="AE5" s="21">
+      <c r="AE5" s="12">
         <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="14">
         <f t="shared" ref="B6:G6" si="0">SUM(B2:B5)</f>
         <v>10</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="14">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="14">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="14">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="22" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="15">
         <f t="shared" ref="J6:O6" si="1">SUM(J2:J5)</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="15">
         <f t="shared" si="1"/>
         <v>0.13333333333333333</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="15">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="15">
         <f t="shared" si="1"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6" s="15">
         <f t="shared" si="1"/>
         <v>0.33333333333333337</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="22" t="s">
+      <c r="P6" s="10"/>
+      <c r="Q6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6" s="16">
         <f t="shared" ref="R6:W6" si="2">SUM(R2:R5)</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="S6" s="25">
+      <c r="S6" s="16">
         <f t="shared" si="2"/>
         <v>0.13333333333333333</v>
       </c>
-      <c r="T6" s="25">
+      <c r="T6" s="16">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="U6" s="25">
+      <c r="U6" s="16">
         <f t="shared" si="2"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="V6" s="25">
+      <c r="V6" s="16">
         <f t="shared" si="2"/>
         <v>0.33333333333333337</v>
       </c>
-      <c r="W6" s="20">
+      <c r="W6" s="11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="22" t="s">
+      <c r="X6" s="1"/>
+      <c r="Y6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="Z6" s="25">
+      <c r="Z6" s="16">
         <v>6.6666666666666693E-2</v>
       </c>
-      <c r="AA6" s="25">
+      <c r="AA6" s="16">
         <v>0.133333333333333</v>
       </c>
-      <c r="AB6" s="25">
+      <c r="AB6" s="16">
         <v>0.2</v>
       </c>
-      <c r="AC6" s="25">
+      <c r="AC6" s="16">
         <v>0.266666666666667</v>
       </c>
-      <c r="AD6" s="25">
+      <c r="AD6" s="16">
         <v>0.33333333333333298</v>
       </c>
-      <c r="AE6" s="20">
+      <c r="AE6" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="X7" s="27" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="X7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
     </row>
     <row r="8" spans="1:31" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:31" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1965,7 +3872,7 @@
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1986,521 +3893,521 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28">
+      <c r="B1" s="19">
         <v>0</v>
       </c>
-      <c r="C1" s="28">
+      <c r="C1" s="19">
         <v>1</v>
       </c>
-      <c r="D1" s="28">
+      <c r="D1" s="19">
         <v>2</v>
       </c>
-      <c r="E1" s="28">
+      <c r="E1" s="19">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="29">
+      <c r="I1" s="20">
         <v>0</v>
       </c>
-      <c r="J1" s="29">
+      <c r="J1" s="20">
         <v>1</v>
       </c>
-      <c r="K1" s="29">
+      <c r="K1" s="20">
         <v>2</v>
       </c>
-      <c r="L1" s="29">
+      <c r="L1" s="20">
         <v>3</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="28">
+      <c r="P1" s="19">
         <v>0</v>
       </c>
-      <c r="Q1" s="28">
+      <c r="Q1" s="19">
         <v>1</v>
       </c>
-      <c r="R1" s="28">
+      <c r="R1" s="19">
         <v>2</v>
       </c>
-      <c r="S1" s="28">
+      <c r="S1" s="19">
         <v>3</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="10">
+      <c r="W1" s="1">
         <v>0</v>
       </c>
-      <c r="X1" s="10">
+      <c r="X1" s="1">
         <v>1</v>
       </c>
-      <c r="Y1" s="10">
+      <c r="Y1" s="1">
         <v>2</v>
       </c>
-      <c r="Z1" s="10">
+      <c r="Z1" s="1">
         <v>3</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="17">
         <f>2*$A$2+B$1</f>
         <v>0</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="17">
         <f>2*$A$2+C$1</f>
         <v>1</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="17">
         <f>2*$A$2+D$1</f>
         <v>2</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="17">
         <f>2*$A$2+E$1</f>
         <v>3</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="1">
         <f>SUM(B2:E2)</f>
         <v>6</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="30">
+      <c r="G2" s="1"/>
+      <c r="H2" s="21">
         <v>0</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I2" s="22">
         <f>(2*$A$2+I$1)/42</f>
         <v>0</v>
       </c>
-      <c r="J2" s="31">
+      <c r="J2" s="22">
         <f>(2*$A$2+J$1)/42</f>
         <v>2.3809523809523808E-2</v>
       </c>
-      <c r="K2" s="31">
+      <c r="K2" s="22">
         <f>(2*$A$2+K$1)/42</f>
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="L2" s="31">
+      <c r="L2" s="22">
         <f>(2*$A$2+L$1)/42</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="M2" s="32">
+      <c r="M2" s="23">
         <f>I2+J2+K2+L2</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="O2" s="15">
+      <c r="O2" s="6">
         <v>0</v>
       </c>
-      <c r="P2" s="33">
+      <c r="P2" s="24">
         <f>(2*$A$2+P$1)/42</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="20">
+      <c r="Q2" s="11">
         <f>(2*$A$2+Q$1)/42</f>
         <v>2.3809523809523808E-2</v>
       </c>
-      <c r="R2" s="20">
+      <c r="R2" s="11">
         <f>(2*$A$2+R$1)/42</f>
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="S2" s="20">
+      <c r="S2" s="11">
         <f>(2*$A$2+S$1)/42</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="T2" s="25">
+      <c r="T2" s="16">
         <f>P2+Q2+R2+S2</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="V2" s="10">
+      <c r="V2" s="1">
         <v>0</v>
       </c>
-      <c r="W2" s="34">
+      <c r="W2" s="25">
         <f t="shared" ref="W2:Z4" si="0">W$5*$AA2</f>
         <v>2.0408163265306159E-2</v>
       </c>
-      <c r="X2" s="34">
+      <c r="X2" s="25">
         <f t="shared" si="0"/>
         <v>3.0612244897959169E-2</v>
       </c>
-      <c r="Y2" s="34">
+      <c r="Y2" s="25">
         <f t="shared" si="0"/>
         <v>4.0816326530612318E-2</v>
       </c>
-      <c r="Z2" s="34">
+      <c r="Z2" s="25">
         <f t="shared" si="0"/>
         <v>5.1020408163265328E-2</v>
       </c>
-      <c r="AA2" s="20">
+      <c r="AA2" s="11">
         <v>0.14285714285714299</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="1">
         <f>2*$A$3+B$1</f>
         <v>2</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="1">
         <f>2*$A$3+C$1</f>
         <v>3</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="1">
         <f>2*$A$3+D$1</f>
         <v>4</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="1">
         <f>2*$A$3+E$1</f>
         <v>5</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="14">
         <f>B3+C3+D3+E3</f>
         <v>14</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="30">
+      <c r="G3" s="4"/>
+      <c r="H3" s="21">
         <v>1</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="22">
         <f>(2*$A$3+I$1)/42</f>
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="22">
         <f>(2*$A$3+J$1)/42</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="22">
         <f>(2*$A$3+K$1)/42</f>
         <v>9.5238095238095233E-2</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="22">
         <f>(2*$A$3+L$1)/42</f>
         <v>0.11904761904761904</v>
       </c>
-      <c r="M3" s="32">
+      <c r="M3" s="23">
         <f>I3+J3+K3+L3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="6">
         <v>1</v>
       </c>
-      <c r="P3" s="35">
+      <c r="P3" s="26">
         <f>(2*$A$3+P$1)/42</f>
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="Q3" s="35">
+      <c r="Q3" s="26">
         <f>(2*$A$3+Q$1)/42</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="R3" s="35">
+      <c r="R3" s="26">
         <f>(2*$A$3+R$1)/42</f>
         <v>9.5238095238095233E-2</v>
       </c>
-      <c r="S3" s="20">
+      <c r="S3" s="11">
         <f>(2*$A$3+S$1)/42</f>
         <v>0.11904761904761904</v>
       </c>
-      <c r="T3" s="25">
+      <c r="T3" s="16">
         <f>P3+Q3+R3+S3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="V3" s="10">
+      <c r="V3" s="1">
         <v>1</v>
       </c>
-      <c r="W3" s="20">
+      <c r="W3" s="11">
         <f t="shared" si="0"/>
         <v>4.7619047619047609E-2</v>
       </c>
-      <c r="X3" s="20">
+      <c r="X3" s="11">
         <f t="shared" si="0"/>
         <v>7.1428571428571258E-2</v>
       </c>
-      <c r="Y3" s="20">
+      <c r="Y3" s="11">
         <f t="shared" si="0"/>
         <v>9.5238095238095219E-2</v>
       </c>
-      <c r="Z3" s="20">
+      <c r="Z3" s="11">
         <f t="shared" si="0"/>
         <v>0.11904761904761887</v>
       </c>
-      <c r="AA3" s="20">
+      <c r="AA3" s="11">
         <v>0.33333333333333298</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="1">
         <f>2*$A$4+B$1</f>
         <v>4</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="1">
         <f>2*$A$4+C$1</f>
         <v>5</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="1">
         <f>2*$A$4+D$1</f>
         <v>6</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="1">
         <f>2*$A$4+E$1</f>
         <v>7</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="14">
         <f>B4+C4+D4+E4</f>
         <v>22</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="30">
+      <c r="G4" s="4"/>
+      <c r="H4" s="21">
         <v>2</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="22">
         <f>(2*$A$4+I$1)/42</f>
         <v>9.5238095238095233E-2</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="22">
         <f>(2*$A$4+J$1)/42</f>
         <v>0.11904761904761904</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="22">
         <f>(2*$A$4+K$1)/42</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="22">
         <f>(2*$A$4+L$1)/42</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="M4" s="32">
+      <c r="M4" s="23">
         <f>I4+J4+K4+L4</f>
         <v>0.52380952380952372</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="6">
         <v>2</v>
       </c>
-      <c r="P4" s="35">
+      <c r="P4" s="26">
         <f>(2*$A$4+P$1)/42</f>
         <v>9.5238095238095233E-2</v>
       </c>
-      <c r="Q4" s="36">
+      <c r="Q4" s="27">
         <f>(2*$A$4+Q$1)/42</f>
         <v>0.11904761904761904</v>
       </c>
-      <c r="R4" s="35">
+      <c r="R4" s="26">
         <f>(2*$A$4+R$1)/42</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4" s="11">
         <f>(2*$A$4+S$1)/42</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="T4" s="25">
+      <c r="T4" s="16">
         <f>P4+Q4+R4+S4</f>
         <v>0.52380952380952372</v>
       </c>
-      <c r="V4" s="10">
+      <c r="V4" s="1">
         <v>2</v>
       </c>
-      <c r="W4" s="34">
+      <c r="W4" s="25">
         <f t="shared" si="0"/>
         <v>7.4829931972789199E-2</v>
       </c>
-      <c r="X4" s="36">
+      <c r="X4" s="27">
         <f t="shared" si="0"/>
         <v>0.11224489795918355</v>
       </c>
-      <c r="Y4" s="34">
+      <c r="Y4" s="25">
         <f t="shared" si="0"/>
         <v>0.1496598639455784</v>
       </c>
-      <c r="Z4" s="34">
+      <c r="Z4" s="25">
         <f t="shared" si="0"/>
         <v>0.18707482993197275</v>
       </c>
-      <c r="AA4" s="35">
+      <c r="AA4" s="26">
         <v>0.52380952380952395</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="14">
         <f>D2+B3+B4</f>
         <v>8</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="14">
         <f>E2+C3+C4</f>
         <v>11</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="14">
         <f>SUM(D2:D4)</f>
         <v>12</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="14">
         <f>G2+E3+E4</f>
         <v>12</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="1">
         <f>SUM(F2:F4)</f>
         <v>42</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="22" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="23">
         <f>I2+I3+I4</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="23">
         <f>J2+J3+J4</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="23">
         <f>K2+K3+K4</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="23">
         <f>L2+L3+L4</f>
         <v>0.3571428571428571</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="22">
         <f>SUM(M2:M4)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="O5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="25">
+      <c r="P5" s="16">
         <f>P2+P3+P4</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="Q5" s="16">
         <f>Q2+Q3+Q4</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="R5" s="25">
+      <c r="R5" s="16">
         <f>R2+R3+R4</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="S5" s="25">
+      <c r="S5" s="16">
         <f>S2+S3+S4</f>
         <v>0.3571428571428571</v>
       </c>
-      <c r="T5" s="20">
+      <c r="T5" s="11">
         <f>SUM(T2:T4)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="V5" s="22" t="s">
+      <c r="V5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="W5" s="20">
+      <c r="W5" s="11">
         <v>0.14285714285714299</v>
       </c>
-      <c r="X5" s="35">
+      <c r="X5" s="26">
         <v>0.214285714285714</v>
       </c>
-      <c r="Y5" s="20">
+      <c r="Y5" s="11">
         <v>0.28571428571428598</v>
       </c>
-      <c r="Z5" s="20">
+      <c r="Z5" s="11">
         <v>0.35714285714285698</v>
       </c>
-      <c r="AA5" s="20">
+      <c r="AA5" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="O6" s="37" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="O6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="38">
+      <c r="P6" s="29">
         <f>SUM(P3:R4)</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="40" t="s">
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="40" t="s">
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="27"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="18"/>
     </row>
     <row r="7" spans="1:27" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="O7" s="27" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="O7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="41">
+      <c r="P7" s="32">
         <f>SUM(R3:S4)</f>
         <v>0.52380952380952372</v>
       </c>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="40" t="s">
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
     </row>
     <row r="8" spans="1:27" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="O8" s="27" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="O8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="41">
+      <c r="P8" s="32">
         <f>SUM(R2:S3)</f>
         <v>0.33333333333333331</v>
       </c>
@@ -2519,7 +4426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView topLeftCell="M10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
@@ -2546,679 +4453,679 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11">
+      <c r="B1" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="11">
+      <c r="D1" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="11">
+      <c r="I1" s="2">
         <v>1</v>
       </c>
-      <c r="J1" s="11">
+      <c r="J1" s="2">
         <v>2</v>
       </c>
-      <c r="K1" s="11">
+      <c r="K1" s="2">
         <v>3</v>
       </c>
-      <c r="L1" s="11">
+      <c r="L1" s="2">
         <v>4</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="10" t="s">
+      <c r="N1" s="3"/>
+      <c r="O1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="11">
+      <c r="P1" s="2">
         <v>1</v>
       </c>
-      <c r="Q1" s="11">
+      <c r="Q1" s="2">
         <v>2</v>
       </c>
-      <c r="R1" s="11">
+      <c r="R1" s="2">
         <v>3</v>
       </c>
-      <c r="S1" s="11">
+      <c r="S1" s="2">
         <v>4</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="42"/>
-      <c r="V1" s="10" t="s">
+      <c r="U1" s="33"/>
+      <c r="V1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="11">
+      <c r="W1" s="2">
         <v>1</v>
       </c>
-      <c r="X1" s="11">
+      <c r="X1" s="2">
         <v>2</v>
       </c>
-      <c r="Y1" s="11">
+      <c r="Y1" s="2">
         <v>3</v>
       </c>
-      <c r="Z1" s="11">
+      <c r="Z1" s="2">
         <v>4</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="12"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="3"/>
     </row>
     <row r="2" spans="1:30" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="1">
         <f>3*$A$2+2*B$1</f>
         <v>5</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="1">
         <f>3*$A$2+2*C$1</f>
         <v>7</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="1">
         <f>3*$A$2+2*D$1</f>
         <v>9</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="1">
         <f>3*$A$2+2*E$1</f>
         <v>11</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="7">
         <f>SUM(B2:E2)</f>
         <v>32</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="15">
+      <c r="G2" s="4"/>
+      <c r="H2" s="6">
         <v>1</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I2" s="22">
         <f t="array" ref="I2:L6">(1/280)*(B2:E6)</f>
         <v>1.7857142857142856E-2</v>
       </c>
-      <c r="J2" s="31">
+      <c r="J2" s="22">
         <v>2.4999999999999998E-2</v>
       </c>
-      <c r="K2" s="31">
+      <c r="K2" s="22">
         <v>3.214285714285714E-2</v>
       </c>
-      <c r="L2" s="31">
+      <c r="L2" s="22">
         <v>3.9285714285714285E-2</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="34">
         <f t="shared" ref="M2:M7" si="0">SUM(I2:L2)</f>
         <v>0.11428571428571428</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="15">
+      <c r="N2" s="8"/>
+      <c r="O2" s="6">
         <v>1</v>
       </c>
-      <c r="P2" s="44">
+      <c r="P2" s="35">
         <f t="array" ref="P2:S6">(1/280)*(B2:E6)</f>
         <v>1.7857142857142856E-2</v>
       </c>
-      <c r="Q2" s="44">
+      <c r="Q2" s="35">
         <v>2.4999999999999998E-2</v>
       </c>
-      <c r="R2" s="44">
+      <c r="R2" s="35">
         <v>3.214285714285714E-2</v>
       </c>
-      <c r="S2" s="44">
+      <c r="S2" s="35">
         <v>3.9285714285714285E-2</v>
       </c>
-      <c r="T2" s="21">
+      <c r="T2" s="12">
         <f>SUM(P2:S2)</f>
         <v>0.11428571428571428</v>
       </c>
-      <c r="U2" s="20"/>
-      <c r="V2" s="15">
+      <c r="U2" s="11"/>
+      <c r="V2" s="6">
         <v>1</v>
       </c>
-      <c r="W2" s="45">
+      <c r="W2" s="36">
         <f t="shared" ref="W2:Z6" si="1">W$7*$AA2</f>
         <v>2.2448979591836633E-2</v>
       </c>
-      <c r="X2" s="45">
+      <c r="X2" s="36">
         <f t="shared" si="1"/>
         <v>2.6530612244897878E-2</v>
       </c>
-      <c r="Y2" s="45">
+      <c r="Y2" s="36">
         <f t="shared" si="1"/>
         <v>3.0612244897959127E-2</v>
       </c>
-      <c r="Z2" s="45">
+      <c r="Z2" s="36">
         <f t="shared" si="1"/>
         <v>3.4693877551020373E-2</v>
       </c>
-      <c r="AA2" s="21">
+      <c r="AA2" s="12">
         <v>0.114285714285714</v>
       </c>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
     </row>
     <row r="3" spans="1:30" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="1">
         <f>3*$A$3+2*B$1</f>
         <v>8</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="1">
         <f>3*$A$3+2*C$1</f>
         <v>10</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="1">
         <f>3*$A$3+2*D$1</f>
         <v>12</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="1">
         <f>3*$A$3+2*E$1</f>
         <v>14</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="7">
         <f>SUM(B3:E3)</f>
         <v>44</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="15">
+      <c r="G3" s="4"/>
+      <c r="H3" s="6">
         <v>2</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="22">
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="22">
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="22">
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="22">
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="34">
         <f t="shared" si="0"/>
         <v>0.15714285714285714</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="15">
+      <c r="N3" s="8"/>
+      <c r="O3" s="6">
         <v>2</v>
       </c>
-      <c r="P3" s="44">
+      <c r="P3" s="35">
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="Q3" s="44">
+      <c r="Q3" s="35">
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="R3" s="44">
+      <c r="R3" s="35">
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="S3" s="44">
+      <c r="S3" s="35">
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="T3" s="21">
+      <c r="T3" s="12">
         <f>SUM(P3:S3)</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="U3" s="20"/>
-      <c r="V3" s="15">
+      <c r="U3" s="11"/>
+      <c r="V3" s="6">
         <v>2</v>
       </c>
-      <c r="W3" s="45">
+      <c r="W3" s="36">
         <f t="shared" si="1"/>
         <v>3.0867346938775415E-2</v>
       </c>
-      <c r="X3" s="45">
+      <c r="X3" s="36">
         <f t="shared" si="1"/>
         <v>3.6479591836734639E-2</v>
       </c>
-      <c r="Y3" s="45">
+      <c r="Y3" s="36">
         <f t="shared" si="1"/>
         <v>4.2091836734693862E-2</v>
       </c>
-      <c r="Z3" s="45">
+      <c r="Z3" s="36">
         <f t="shared" si="1"/>
         <v>4.7704081632653085E-2</v>
       </c>
-      <c r="AA3" s="21">
+      <c r="AA3" s="12">
         <v>0.157142857142857</v>
       </c>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
     </row>
     <row r="4" spans="1:30" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="1">
         <f>3*$A$4+2*B$1</f>
         <v>11</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="1">
         <f>3*$A$4+2*C$1</f>
         <v>13</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="1">
         <f>3*$A$4+2*D$1</f>
         <v>15</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="1">
         <f>3*$A$4+2*E$1</f>
         <v>17</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="7">
         <f>SUM(B4:E4)</f>
         <v>56</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="15">
+      <c r="G4" s="4"/>
+      <c r="H4" s="6">
         <v>3</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="22">
         <v>3.9285714285714285E-2</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="22">
         <v>4.642857142857143E-2</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="22">
         <v>5.3571428571428568E-2</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="22">
         <v>6.0714285714285714E-2</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="34">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="15">
+      <c r="N4" s="8"/>
+      <c r="O4" s="6">
         <v>3</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4" s="11">
         <v>3.9285714285714285E-2</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="11">
         <v>4.642857142857143E-2</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4" s="11">
         <v>5.3571428571428568E-2</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4" s="11">
         <v>6.0714285714285714E-2</v>
       </c>
-      <c r="T4" s="21">
+      <c r="T4" s="12">
         <f>SUM(P4:S4)</f>
         <v>0.2</v>
       </c>
-      <c r="U4" s="20"/>
-      <c r="V4" s="15">
+      <c r="U4" s="11"/>
+      <c r="V4" s="6">
         <v>3</v>
       </c>
-      <c r="W4" s="20">
+      <c r="W4" s="11">
         <f t="shared" si="1"/>
         <v>3.9285714285714202E-2</v>
       </c>
-      <c r="X4" s="20">
+      <c r="X4" s="11">
         <f t="shared" si="1"/>
         <v>4.6428571428571402E-2</v>
       </c>
-      <c r="Y4" s="20">
+      <c r="Y4" s="11">
         <f t="shared" si="1"/>
         <v>5.3571428571428603E-2</v>
       </c>
-      <c r="Z4" s="20">
+      <c r="Z4" s="11">
         <f t="shared" si="1"/>
         <v>6.0714285714285804E-2</v>
       </c>
-      <c r="AA4" s="21">
+      <c r="AA4" s="12">
         <v>0.2</v>
       </c>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
     </row>
     <row r="5" spans="1:30" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="1">
         <f>3*$A$5+2*B$1</f>
         <v>14</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="1">
         <f>3*$A$5+2*C$1</f>
         <v>16</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="1">
         <f>3*$A$5+2*D$1</f>
         <v>18</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="1">
         <f>3*$A$5+2*E$1</f>
         <v>20</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="7">
         <f>SUM(B5:E5)</f>
         <v>68</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="15">
+      <c r="G5" s="4"/>
+      <c r="H5" s="6">
         <v>4</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="22">
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="22">
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="22">
         <v>6.4285714285714279E-2</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="22">
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="34">
         <f t="shared" si="0"/>
         <v>0.24285714285714285</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="15">
+      <c r="N5" s="8"/>
+      <c r="O5" s="6">
         <v>4</v>
       </c>
-      <c r="P5" s="44">
+      <c r="P5" s="35">
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="Q5" s="44">
+      <c r="Q5" s="35">
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="R5" s="44">
+      <c r="R5" s="35">
         <v>6.4285714285714279E-2</v>
       </c>
-      <c r="S5" s="44">
+      <c r="S5" s="35">
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="T5" s="21">
+      <c r="T5" s="12">
         <f>SUM(P5:S5)</f>
         <v>0.24285714285714285</v>
       </c>
-      <c r="U5" s="20"/>
-      <c r="V5" s="15">
+      <c r="U5" s="11"/>
+      <c r="V5" s="6">
         <v>4</v>
       </c>
-      <c r="W5" s="45">
+      <c r="W5" s="36">
         <f t="shared" si="1"/>
         <v>4.7704081632652988E-2</v>
       </c>
-      <c r="X5" s="45">
+      <c r="X5" s="36">
         <f t="shared" si="1"/>
         <v>5.6377551020408166E-2</v>
       </c>
-      <c r="Y5" s="45">
+      <c r="Y5" s="36">
         <f t="shared" si="1"/>
         <v>6.5051020408163338E-2</v>
       </c>
-      <c r="Z5" s="45">
+      <c r="Z5" s="36">
         <f t="shared" si="1"/>
         <v>7.3724489795918516E-2</v>
       </c>
-      <c r="AA5" s="21">
+      <c r="AA5" s="12">
         <v>0.24285714285714299</v>
       </c>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
     </row>
     <row r="6" spans="1:30" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="1">
         <f>3*$A$6+2*B$1</f>
         <v>17</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="1">
         <f>3*$A$6+2*C$1</f>
         <v>19</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="1">
         <f>3*$A$6+2*D$1</f>
         <v>21</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="1">
         <f>3*$A$6+2*E$1</f>
         <v>23</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="7">
         <f>SUM(B6:E6)</f>
         <v>80</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="15">
+      <c r="G6" s="4"/>
+      <c r="H6" s="6">
         <v>5</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="22">
         <v>6.0714285714285714E-2</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="22">
         <v>6.7857142857142852E-2</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="22">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="22">
         <v>8.2142857142857142E-2</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="34">
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="15">
+      <c r="N6" s="8"/>
+      <c r="O6" s="6">
         <v>5</v>
       </c>
-      <c r="P6" s="44">
+      <c r="P6" s="35">
         <v>6.0714285714285714E-2</v>
       </c>
-      <c r="Q6" s="44">
+      <c r="Q6" s="35">
         <v>6.7857142857142852E-2</v>
       </c>
-      <c r="R6" s="44">
+      <c r="R6" s="35">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="S6" s="44">
+      <c r="S6" s="35">
         <v>8.2142857142857142E-2</v>
       </c>
-      <c r="T6" s="21">
+      <c r="T6" s="12">
         <f>SUM(P6:S6)</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="U6" s="20"/>
-      <c r="V6" s="15">
+      <c r="U6" s="11"/>
+      <c r="V6" s="6">
         <v>5</v>
       </c>
-      <c r="W6" s="45">
+      <c r="W6" s="36">
         <f t="shared" si="1"/>
         <v>5.6122448979591767E-2</v>
       </c>
-      <c r="X6" s="45">
+      <c r="X6" s="36">
         <f t="shared" si="1"/>
         <v>6.6326530612244916E-2</v>
       </c>
-      <c r="Y6" s="45">
+      <c r="Y6" s="36">
         <f t="shared" si="1"/>
         <v>7.6530612244898072E-2</v>
       </c>
-      <c r="Z6" s="45">
+      <c r="Z6" s="36">
         <f t="shared" si="1"/>
         <v>8.6734693877551214E-2</v>
       </c>
-      <c r="AA6" s="21">
+      <c r="AA6" s="12">
         <v>0.28571428571428598</v>
       </c>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
     </row>
     <row r="7" spans="1:30" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="14">
         <f>SUM(B2:B6)</f>
         <v>55</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="14">
         <f>SUM(C2:C6)</f>
         <v>65</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
         <v>75</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="14">
         <f>SUM(E2:E6)</f>
         <v>85</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="14">
         <f>SUM(F2:F6)</f>
         <v>280</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="22" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="23">
         <f>SUM(I2:I6)</f>
         <v>0.19642857142857142</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="23">
         <f>SUM(J2:J6)</f>
         <v>0.23214285714285715</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="23">
         <f>SUM(K2:K6)</f>
         <v>0.26785714285714285</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="23">
         <f>SUM(L2:L6)</f>
         <v>0.30357142857142855</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N7" s="42"/>
-      <c r="O7" s="22" t="s">
+      <c r="N7" s="33"/>
+      <c r="O7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="16">
         <f>SUM(P2:P6)</f>
         <v>0.19642857142857142</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="Q7" s="16">
         <f>SUM(Q2:Q6)</f>
         <v>0.23214285714285715</v>
       </c>
-      <c r="R7" s="25">
+      <c r="R7" s="16">
         <f>SUM(R2:R6)</f>
         <v>0.26785714285714285</v>
       </c>
-      <c r="S7" s="25">
+      <c r="S7" s="16">
         <f>SUM(S2:S6)</f>
         <v>0.30357142857142855</v>
       </c>
-      <c r="T7" s="25">
+      <c r="T7" s="16">
         <f>SUM(T2:T6)</f>
         <v>1</v>
       </c>
-      <c r="U7" s="20"/>
-      <c r="V7" s="22" t="s">
+      <c r="U7" s="11"/>
+      <c r="V7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="W7" s="25">
+      <c r="W7" s="16">
         <v>0.19642857142857101</v>
       </c>
-      <c r="X7" s="25">
+      <c r="X7" s="16">
         <v>0.23214285714285701</v>
       </c>
-      <c r="Y7" s="25">
+      <c r="Y7" s="16">
         <v>0.26785714285714302</v>
       </c>
-      <c r="Z7" s="25">
+      <c r="Z7" s="16">
         <v>0.30357142857142899</v>
       </c>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
     </row>
     <row r="8" spans="1:30" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
     </row>
     <row r="9" spans="1:30" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:30" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -3234,8 +5141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3244,1437 +5151,1439 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="31.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11">
+      <c r="B1" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="11">
+      <c r="D1" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="11">
+      <c r="I1" s="2">
         <v>1</v>
       </c>
-      <c r="J1" s="11">
+      <c r="J1" s="2">
         <v>2</v>
       </c>
-      <c r="K1" s="11">
+      <c r="K1" s="2">
         <v>3</v>
       </c>
-      <c r="L1" s="11">
+      <c r="L1" s="2">
         <v>4</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="10" t="s">
+      <c r="N1" s="3"/>
+      <c r="O1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="11">
+      <c r="P1" s="2">
         <v>1</v>
       </c>
-      <c r="Q1" s="11">
+      <c r="Q1" s="2">
         <v>2</v>
       </c>
-      <c r="R1" s="11">
+      <c r="R1" s="2">
         <v>3</v>
       </c>
-      <c r="S1" s="11">
+      <c r="S1" s="2">
         <v>4</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="42"/>
-      <c r="V1" s="10" t="s">
+      <c r="U1" s="33"/>
+      <c r="V1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="11">
+      <c r="W1" s="2">
         <v>1</v>
       </c>
-      <c r="X1" s="11">
+      <c r="X1" s="2">
         <v>2</v>
       </c>
-      <c r="Y1" s="11">
+      <c r="Y1" s="2">
         <v>3</v>
       </c>
-      <c r="Z1" s="11">
+      <c r="Z1" s="2">
         <v>4</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="12"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="3"/>
     </row>
     <row r="2" spans="1:30" ht="31.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="1">
         <f>3*$A$2+2*B$1</f>
         <v>5</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="1">
         <f>3*$A$2+2*C$1</f>
         <v>7</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="1">
         <f>3*$A$2+2*D$1</f>
         <v>9</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="1">
         <f>3*$A$2+2*E$1</f>
         <v>11</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="7">
         <f>SUM(B2:E2)</f>
         <v>32</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="15">
+      <c r="G2" s="4"/>
+      <c r="H2" s="6">
         <v>1</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I2" s="22">
         <f t="array" ref="I2:L6">(1/280)*(B2:E6)</f>
         <v>1.7857142857142856E-2</v>
       </c>
-      <c r="J2" s="31">
+      <c r="J2" s="22">
         <v>2.4999999999999998E-2</v>
       </c>
-      <c r="K2" s="31">
+      <c r="K2" s="22">
         <v>3.214285714285714E-2</v>
       </c>
-      <c r="L2" s="31">
+      <c r="L2" s="22">
         <v>3.9285714285714285E-2</v>
       </c>
-      <c r="M2" s="43">
-        <f t="shared" ref="M2:M7" si="0">SUM(I2:L2)</f>
+      <c r="M2" s="34">
+        <f t="shared" ref="M2:M6" si="0">SUM(I2:L2)</f>
         <v>0.11428571428571428</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="15">
+      <c r="N2" s="8"/>
+      <c r="O2" s="6">
         <v>1</v>
       </c>
-      <c r="P2" s="44">
+      <c r="P2" s="35">
         <f t="array" ref="P2:S6">(1/280)*(B2:E6)</f>
         <v>1.7857142857142856E-2</v>
       </c>
-      <c r="Q2" s="44">
+      <c r="Q2" s="35">
         <v>2.4999999999999998E-2</v>
       </c>
-      <c r="R2" s="44">
+      <c r="R2" s="35">
         <v>3.214285714285714E-2</v>
       </c>
-      <c r="S2" s="44">
+      <c r="S2" s="35">
         <v>3.9285714285714285E-2</v>
       </c>
-      <c r="T2" s="21">
+      <c r="T2" s="12">
         <f>SUM(P2:S2)</f>
         <v>0.11428571428571428</v>
       </c>
-      <c r="U2" s="20"/>
-      <c r="V2" s="15">
+      <c r="U2" s="11"/>
+      <c r="V2" s="6">
         <v>1</v>
       </c>
-      <c r="W2" s="45">
-        <f t="shared" ref="W2:Z6" si="1">W$7*$AA2</f>
+      <c r="W2" s="36">
+        <f>W$7*$AA2</f>
         <v>2.2448979591836633E-2</v>
       </c>
-      <c r="X2" s="45">
-        <f t="shared" si="1"/>
+      <c r="X2" s="36">
+        <f t="shared" ref="W2:Z6" si="1">X$7*$AA2</f>
         <v>2.6530612244897878E-2</v>
       </c>
-      <c r="Y2" s="45">
+      <c r="Y2" s="36">
         <f t="shared" si="1"/>
         <v>3.0612244897959127E-2</v>
       </c>
-      <c r="Z2" s="45">
+      <c r="Z2" s="36">
         <f t="shared" si="1"/>
         <v>3.4693877551020373E-2</v>
       </c>
-      <c r="AA2" s="21">
+      <c r="AA2" s="12">
         <v>0.114285714285714</v>
       </c>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
     </row>
     <row r="3" spans="1:30" ht="31.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="1">
         <f>3*$A$3+2*B$1</f>
         <v>8</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="1">
         <f>3*$A$3+2*C$1</f>
         <v>10</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="1">
         <f>3*$A$3+2*D$1</f>
         <v>12</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="1">
         <f>3*$A$3+2*E$1</f>
         <v>14</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="7">
         <f>SUM(B3:E3)</f>
         <v>44</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="15">
+      <c r="G3" s="4"/>
+      <c r="H3" s="6">
         <v>2</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="22">
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="22">
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="22">
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="22">
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="34">
         <f t="shared" si="0"/>
         <v>0.15714285714285714</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="15">
+      <c r="N3" s="8"/>
+      <c r="O3" s="6">
         <v>2</v>
       </c>
-      <c r="P3" s="44">
+      <c r="P3" s="35">
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="Q3" s="44">
+      <c r="Q3" s="35">
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="R3" s="44">
+      <c r="R3" s="35">
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="S3" s="44">
+      <c r="S3" s="35">
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="T3" s="21">
+      <c r="T3" s="12">
         <f>SUM(P3:S3)</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="U3" s="20"/>
-      <c r="V3" s="15">
+      <c r="U3" s="11"/>
+      <c r="V3" s="6">
         <v>2</v>
       </c>
-      <c r="W3" s="45">
-        <f t="shared" si="1"/>
+      <c r="W3" s="36">
+        <f>W$7*$AA3</f>
         <v>3.0867346938775415E-2</v>
       </c>
-      <c r="X3" s="45">
+      <c r="X3" s="36">
         <f t="shared" si="1"/>
         <v>3.6479591836734639E-2</v>
       </c>
-      <c r="Y3" s="45">
+      <c r="Y3" s="36">
         <f t="shared" si="1"/>
         <v>4.2091836734693862E-2</v>
       </c>
-      <c r="Z3" s="45">
+      <c r="Z3" s="36">
         <f t="shared" si="1"/>
         <v>4.7704081632653085E-2</v>
       </c>
-      <c r="AA3" s="21">
+      <c r="AA3" s="12">
         <v>0.157142857142857</v>
       </c>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
     </row>
     <row r="4" spans="1:30" ht="31.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="1">
         <f>3*$A$4+2*B$1</f>
         <v>11</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="1">
         <f>3*$A$4+2*C$1</f>
         <v>13</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="1">
         <f>3*$A$4+2*D$1</f>
         <v>15</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="1">
         <f>3*$A$4+2*E$1</f>
         <v>17</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="7">
         <f>SUM(B4:E4)</f>
         <v>56</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="15">
+      <c r="G4" s="4"/>
+      <c r="H4" s="6">
         <v>3</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="22">
         <v>3.9285714285714285E-2</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="22">
         <v>4.642857142857143E-2</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="22">
         <v>5.3571428571428568E-2</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="22">
         <v>6.0714285714285714E-2</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="34">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="15">
+      <c r="N4" s="8"/>
+      <c r="O4" s="6">
         <v>3</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4" s="11">
         <v>3.9285714285714285E-2</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="11">
         <v>4.642857142857143E-2</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4" s="11">
         <v>5.3571428571428568E-2</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4" s="11">
         <v>6.0714285714285714E-2</v>
       </c>
-      <c r="T4" s="21">
+      <c r="T4" s="12">
         <f>SUM(P4:S4)</f>
         <v>0.2</v>
       </c>
-      <c r="U4" s="20"/>
-      <c r="V4" s="15">
+      <c r="U4" s="11"/>
+      <c r="V4" s="6">
         <v>3</v>
       </c>
-      <c r="W4" s="20">
+      <c r="W4" s="11">
         <f t="shared" si="1"/>
         <v>3.9285714285714202E-2</v>
       </c>
-      <c r="X4" s="20">
+      <c r="X4" s="11">
         <f t="shared" si="1"/>
         <v>4.6428571428571402E-2</v>
       </c>
-      <c r="Y4" s="20">
+      <c r="Y4" s="11">
         <f t="shared" si="1"/>
         <v>5.3571428571428603E-2</v>
       </c>
-      <c r="Z4" s="20">
+      <c r="Z4" s="11">
         <f t="shared" si="1"/>
         <v>6.0714285714285804E-2</v>
       </c>
-      <c r="AA4" s="21">
+      <c r="AA4" s="12">
         <v>0.2</v>
       </c>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
     </row>
     <row r="5" spans="1:30" ht="31.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="1">
         <f>3*$A$5+2*B$1</f>
         <v>14</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="1">
         <f>3*$A$5+2*C$1</f>
         <v>16</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="1">
         <f>3*$A$5+2*D$1</f>
         <v>18</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="1">
         <f>3*$A$5+2*E$1</f>
         <v>20</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="7">
         <f>SUM(B5:E5)</f>
         <v>68</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="15">
+      <c r="G5" s="4"/>
+      <c r="H5" s="6">
         <v>4</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="22">
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="22">
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="22">
         <v>6.4285714285714279E-2</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="22">
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="34">
         <f t="shared" si="0"/>
         <v>0.24285714285714285</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="15">
+      <c r="N5" s="8"/>
+      <c r="O5" s="6">
         <v>4</v>
       </c>
-      <c r="P5" s="44">
+      <c r="P5" s="35">
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="Q5" s="44">
+      <c r="Q5" s="35">
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="R5" s="44">
+      <c r="R5" s="35">
         <v>6.4285714285714279E-2</v>
       </c>
-      <c r="S5" s="44">
+      <c r="S5" s="35">
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="T5" s="21">
+      <c r="T5" s="12">
         <f>SUM(P5:S5)</f>
         <v>0.24285714285714285</v>
       </c>
-      <c r="U5" s="20"/>
-      <c r="V5" s="15">
+      <c r="U5" s="11"/>
+      <c r="V5" s="6">
         <v>4</v>
       </c>
-      <c r="W5" s="45">
+      <c r="W5" s="36">
         <f t="shared" si="1"/>
         <v>4.7704081632652988E-2</v>
       </c>
-      <c r="X5" s="45">
+      <c r="X5" s="36">
         <f t="shared" si="1"/>
         <v>5.6377551020408166E-2</v>
       </c>
-      <c r="Y5" s="45">
+      <c r="Y5" s="36">
         <f t="shared" si="1"/>
         <v>6.5051020408163338E-2</v>
       </c>
-      <c r="Z5" s="45">
+      <c r="Z5" s="36">
         <f t="shared" si="1"/>
         <v>7.3724489795918516E-2</v>
       </c>
-      <c r="AA5" s="21">
+      <c r="AA5" s="12">
         <v>0.24285714285714299</v>
       </c>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
     </row>
     <row r="6" spans="1:30" ht="31.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="1">
         <f>3*$A$6+2*B$1</f>
         <v>17</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="1">
         <f>3*$A$6+2*C$1</f>
         <v>19</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="1">
         <f>3*$A$6+2*D$1</f>
         <v>21</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="1">
         <f>3*$A$6+2*E$1</f>
         <v>23</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="7">
         <f>SUM(B6:E6)</f>
         <v>80</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="15">
+      <c r="G6" s="4"/>
+      <c r="H6" s="6">
         <v>5</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="22">
         <v>6.0714285714285714E-2</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="22">
         <v>6.7857142857142852E-2</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="22">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="22">
         <v>8.2142857142857142E-2</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="34">
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="15">
+      <c r="N6" s="8"/>
+      <c r="O6" s="6">
         <v>5</v>
       </c>
-      <c r="P6" s="44">
+      <c r="P6" s="35">
         <v>6.0714285714285714E-2</v>
       </c>
-      <c r="Q6" s="44">
+      <c r="Q6" s="35">
         <v>6.7857142857142852E-2</v>
       </c>
-      <c r="R6" s="44">
+      <c r="R6" s="35">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="S6" s="44">
+      <c r="S6" s="35">
         <v>8.2142857142857142E-2</v>
       </c>
-      <c r="T6" s="21">
+      <c r="T6" s="12">
         <f>SUM(P6:S6)</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="U6" s="20"/>
-      <c r="V6" s="15">
+      <c r="U6" s="11"/>
+      <c r="V6" s="6">
         <v>5</v>
       </c>
-      <c r="W6" s="45">
+      <c r="W6" s="36">
         <f t="shared" si="1"/>
         <v>5.6122448979591767E-2</v>
       </c>
-      <c r="X6" s="45">
+      <c r="X6" s="36">
         <f t="shared" si="1"/>
         <v>6.6326530612244916E-2</v>
       </c>
-      <c r="Y6" s="45">
+      <c r="Y6" s="36">
         <f t="shared" si="1"/>
         <v>7.6530612244898072E-2</v>
       </c>
-      <c r="Z6" s="45">
+      <c r="Z6" s="36">
         <f t="shared" si="1"/>
         <v>8.6734693877551214E-2</v>
       </c>
-      <c r="AA6" s="21">
+      <c r="AA6" s="12">
         <v>0.28571428571428598</v>
       </c>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
     </row>
     <row r="7" spans="1:30" ht="31.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="14">
         <f>SUM(B2:B6)</f>
         <v>55</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="14">
         <f>SUM(C2:C6)</f>
         <v>65</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
         <v>75</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="14">
         <f>SUM(E2:E6)</f>
         <v>85</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="14">
         <f>SUM(F2:F6)</f>
         <v>280</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="22" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="23">
         <f>SUM(I2:I6)</f>
         <v>0.19642857142857142</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="23">
         <f>SUM(J2:J6)</f>
         <v>0.23214285714285715</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="23">
         <f>SUM(K2:K6)</f>
         <v>0.26785714285714285</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="23">
         <f>SUM(L2:L6)</f>
         <v>0.30357142857142855</v>
       </c>
-      <c r="M7" s="43">
-        <f t="shared" si="0"/>
+      <c r="M7" s="34">
+        <f>SUM(I7:L7)</f>
         <v>1</v>
       </c>
-      <c r="N7" s="42"/>
-      <c r="O7" s="22" t="s">
+      <c r="N7" s="33"/>
+      <c r="O7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="16">
         <f>SUM(P2:P6)</f>
         <v>0.19642857142857142</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="Q7" s="16">
         <f>SUM(Q2:Q6)</f>
         <v>0.23214285714285715</v>
       </c>
-      <c r="R7" s="25">
+      <c r="R7" s="16">
         <f>SUM(R2:R6)</f>
         <v>0.26785714285714285</v>
       </c>
-      <c r="S7" s="25">
+      <c r="S7" s="16">
         <f>SUM(S2:S6)</f>
         <v>0.30357142857142855</v>
       </c>
-      <c r="T7" s="25">
+      <c r="T7" s="16">
         <f>SUM(T2:T6)</f>
         <v>1</v>
       </c>
-      <c r="U7" s="20"/>
-      <c r="V7" s="22" t="s">
+      <c r="U7" s="11"/>
+      <c r="V7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="W7" s="25">
+      <c r="W7" s="16">
         <v>0.19642857142857101</v>
       </c>
-      <c r="X7" s="25">
+      <c r="X7" s="16">
         <v>0.23214285714285701</v>
       </c>
-      <c r="Y7" s="25">
+      <c r="Y7" s="16">
         <v>0.26785714285714302</v>
       </c>
-      <c r="Z7" s="25">
+      <c r="Z7" s="16">
         <v>0.30357142857142899</v>
       </c>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
     </row>
     <row r="8" spans="1:30" ht="31.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
     </row>
     <row r="9" spans="1:30" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="9" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="50">
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="41">
         <f>I$1*I$7</f>
         <v>0.19642857142857142</v>
       </c>
-      <c r="J9" s="50">
+      <c r="J9" s="41">
         <f>J$1*J$7</f>
         <v>0.4642857142857143</v>
       </c>
-      <c r="K9" s="50">
+      <c r="K9" s="41">
         <f>K$1*K$7</f>
         <v>0.8035714285714286</v>
       </c>
-      <c r="L9" s="50">
+      <c r="L9" s="41">
         <f>L$1*L$7</f>
         <v>1.2142857142857142</v>
       </c>
-      <c r="M9" s="51">
+      <c r="M9" s="42">
         <f>SUM(I9:L9)</f>
         <v>2.6785714285714288</v>
       </c>
-      <c r="N9" s="26"/>
-      <c r="O9" s="8" t="s">
+      <c r="N9" s="17"/>
+      <c r="O9" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="P9" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
     </row>
     <row r="10" spans="1:30" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="9" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="50">
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="41">
         <f>(I1-$M$9)^2*I$7</f>
         <v>0.55345754373177858</v>
       </c>
-      <c r="J10" s="50">
+      <c r="J10" s="41">
         <f>(J1-$M$9)^2*J$7</f>
         <v>0.1068923104956269</v>
       </c>
-      <c r="K10" s="50">
+      <c r="K10" s="41">
         <f>(K1-$M$9)^2*K$7</f>
         <v>2.7674016034985378E-2</v>
       </c>
-      <c r="L10" s="50">
+      <c r="L10" s="41">
         <f>(L1-$M$9)^2*L$7</f>
         <v>0.53008837463556824</v>
       </c>
-      <c r="M10" s="51">
+      <c r="M10" s="42">
         <f>SUM(I10:L10)</f>
         <v>1.2181122448979591</v>
       </c>
-      <c r="N10" s="26"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="52">
+      <c r="N10" s="17"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="43">
         <f>(I1-$M$9)</f>
         <v>-1.6785714285714288</v>
       </c>
-      <c r="Q10" s="53">
+      <c r="Q10" s="44">
         <f>(J1-$M$9)</f>
         <v>-0.67857142857142883</v>
       </c>
-      <c r="R10" s="53">
+      <c r="R10" s="44">
         <f>(K1-$M$9)</f>
         <v>0.32142857142857117</v>
       </c>
-      <c r="S10" s="54">
+      <c r="S10" s="45">
         <f>(L1-$M$9)</f>
         <v>1.3214285714285712</v>
       </c>
-      <c r="T10" s="55"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
     </row>
     <row r="11" spans="1:30" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="9" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="56">
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="47">
         <f>SQRT(M10)</f>
         <v>1.103681224311603</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="57">
+      <c r="N11" s="17"/>
+      <c r="O11" s="48">
         <f>($H2-$M$12)</f>
         <v>-2.4285714285714284</v>
       </c>
-      <c r="P11" s="55">
+      <c r="P11" s="46">
         <f>$O11*$P10</f>
         <v>4.0765306122448983</v>
       </c>
-      <c r="Q11" s="55">
+      <c r="Q11" s="46">
         <f>$O11*Q10</f>
         <v>1.6479591836734699</v>
       </c>
-      <c r="R11" s="55">
+      <c r="R11" s="46">
         <f>$O11*R10</f>
         <v>-0.78061224489795855</v>
       </c>
-      <c r="S11" s="58">
+      <c r="S11" s="49">
         <f>$O11*S10</f>
         <v>-3.2091836734693868</v>
       </c>
-      <c r="T11" s="55"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
     </row>
     <row r="12" spans="1:30" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="59">
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="50">
         <f>$H2*$M2</f>
         <v>0.11428571428571428</v>
       </c>
-      <c r="I12" s="50">
+      <c r="I12" s="41">
         <f>$H3*$M3</f>
         <v>0.31428571428571428</v>
       </c>
-      <c r="J12" s="50">
+      <c r="J12" s="41">
         <f>$H4*$M4</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="K12" s="50">
+      <c r="K12" s="41">
         <f>$H5*$M5</f>
         <v>0.97142857142857142</v>
       </c>
-      <c r="L12" s="50">
+      <c r="L12" s="41">
         <f>$H6*$M6</f>
         <v>1.4285714285714284</v>
       </c>
-      <c r="M12" s="60">
+      <c r="M12" s="51">
         <f>SUM(H12:L12)</f>
         <v>3.4285714285714284</v>
       </c>
-      <c r="N12" s="26"/>
-      <c r="O12" s="57">
+      <c r="N12" s="17"/>
+      <c r="O12" s="48">
         <f>($H3-$M$12)</f>
         <v>-1.4285714285714284</v>
       </c>
-      <c r="P12" s="55">
+      <c r="P12" s="46">
         <f t="shared" ref="P12:S15" si="2">$O12*P$10</f>
         <v>2.3979591836734695</v>
       </c>
-      <c r="Q12" s="55">
+      <c r="Q12" s="46">
         <f t="shared" si="2"/>
         <v>0.969387755102041</v>
       </c>
-      <c r="R12" s="55">
+      <c r="R12" s="46">
         <f t="shared" si="2"/>
         <v>-0.45918367346938732</v>
       </c>
-      <c r="S12" s="58">
-        <f t="shared" si="2"/>
+      <c r="S12" s="49">
+        <f>$O12*S$10</f>
         <v>-1.8877551020408156</v>
       </c>
-      <c r="T12" s="55"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
     </row>
     <row r="13" spans="1:30" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="59">
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="50">
         <f>($H2-$M$12)^2*$M2</f>
         <v>0.67405247813411062</v>
       </c>
-      <c r="I13" s="50">
+      <c r="I13" s="41">
         <f>($H3-$M$12)^2*$M3</f>
         <v>0.32069970845481044</v>
       </c>
-      <c r="J13" s="50">
+      <c r="J13" s="41">
         <f>($H4-$M$12)^2*$M4</f>
         <v>3.6734693877550989E-2</v>
       </c>
-      <c r="K13" s="50">
+      <c r="K13" s="41">
         <f>($H5-$M$12)^2*$M5</f>
         <v>7.9300291545189555E-2</v>
       </c>
-      <c r="L13" s="50">
+      <c r="L13" s="41">
         <f>($H6-$M$12)^2*$M6</f>
         <v>0.70553935860058326</v>
       </c>
-      <c r="M13" s="60">
+      <c r="M13" s="51">
         <f>SUM(H13:L13)</f>
         <v>1.8163265306122449</v>
       </c>
-      <c r="N13" s="26"/>
-      <c r="O13" s="57">
+      <c r="N13" s="17"/>
+      <c r="O13" s="48">
         <f>($H4-$M$12)</f>
         <v>-0.42857142857142838</v>
       </c>
-      <c r="P13" s="55">
+      <c r="P13" s="46">
         <f t="shared" si="2"/>
         <v>0.71938775510204056</v>
       </c>
-      <c r="Q13" s="55">
+      <c r="Q13" s="46">
         <f t="shared" si="2"/>
         <v>0.29081632653061223</v>
       </c>
-      <c r="R13" s="55">
+      <c r="R13" s="46">
         <f t="shared" si="2"/>
         <v>-0.13775510204081615</v>
       </c>
-      <c r="S13" s="58">
+      <c r="S13" s="49">
         <f t="shared" si="2"/>
         <v>-0.56632653061224458</v>
       </c>
-      <c r="T13" s="55"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
     </row>
     <row r="14" spans="1:30" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="7" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="60">
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="51">
         <f>SQRT(M13)</f>
         <v>1.3477115902938006</v>
       </c>
-      <c r="N14" s="26"/>
-      <c r="O14" s="57">
+      <c r="N14" s="17"/>
+      <c r="O14" s="48">
         <f>($H5-$M$12)</f>
         <v>0.57142857142857162</v>
       </c>
-      <c r="P14" s="55">
+      <c r="P14" s="46">
         <f t="shared" si="2"/>
         <v>-0.95918367346938826</v>
       </c>
-      <c r="Q14" s="55">
+      <c r="Q14" s="46">
         <f t="shared" si="2"/>
         <v>-0.38775510204081659</v>
       </c>
-      <c r="R14" s="55">
+      <c r="R14" s="46">
         <f t="shared" si="2"/>
         <v>0.18367346938775503</v>
       </c>
-      <c r="S14" s="61">
+      <c r="S14" s="52">
         <f t="shared" si="2"/>
         <v>0.75510204081632659</v>
       </c>
-      <c r="T14" s="55"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
     </row>
     <row r="15" spans="1:30" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="6" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="62">
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="53">
         <f>T23</f>
         <v>-7.6530612244897989E-2</v>
       </c>
-      <c r="N15" s="26"/>
-      <c r="O15" s="63">
+      <c r="N15" s="17"/>
+      <c r="O15" s="54">
         <f>($H6-$M$12)</f>
         <v>1.5714285714285716</v>
       </c>
-      <c r="P15" s="64">
+      <c r="P15" s="55">
         <f t="shared" si="2"/>
         <v>-2.637755102040817</v>
       </c>
-      <c r="Q15" s="64">
+      <c r="Q15" s="55">
         <f t="shared" si="2"/>
         <v>-1.0663265306122454</v>
       </c>
-      <c r="R15" s="64">
+      <c r="R15" s="55">
         <f t="shared" si="2"/>
         <v>0.50510204081632615</v>
       </c>
-      <c r="S15" s="65">
+      <c r="S15" s="56">
         <f t="shared" si="2"/>
         <v>2.0765306122448979</v>
       </c>
-      <c r="T15" s="55"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
     </row>
     <row r="16" spans="1:30" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="H16" s="5" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="H16" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="66">
+      <c r="I16" s="124"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="57">
         <f>T24</f>
         <v>-5.145108883232586E-2</v>
       </c>
-      <c r="N16" s="26"/>
-      <c r="O16" s="4" t="s">
+      <c r="N16" s="17"/>
+      <c r="O16" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="P16" s="8" t="s">
+      <c r="P16" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="4" t="s">
+      <c r="Q16" s="119"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="119"/>
+      <c r="T16" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
     </row>
     <row r="17" spans="1:27" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="68">
+      <c r="B17" s="121"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="59">
         <v>-1.6785714285714299</v>
       </c>
-      <c r="Q17" s="69">
+      <c r="Q17" s="60">
         <v>-0.67857142857142905</v>
       </c>
-      <c r="R17" s="69">
+      <c r="R17" s="60">
         <v>0.32142857142857101</v>
       </c>
-      <c r="S17" s="70">
+      <c r="S17" s="61">
         <v>1.3214285714285701</v>
       </c>
-      <c r="T17" s="4"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-    </row>
-    <row r="18" spans="1:27" s="26" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="O18" s="57">
+      <c r="T17" s="120"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+    </row>
+    <row r="18" spans="1:27" s="17" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="121"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="121"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="O18" s="48">
         <v>-2.4285714285714302</v>
       </c>
-      <c r="P18" s="71">
-        <f t="shared" ref="P18:S22" si="3">I2*P11</f>
+      <c r="P18" s="62">
+        <f>I2*P11</f>
         <v>7.2795189504373178E-2</v>
       </c>
-      <c r="Q18" s="71">
-        <f t="shared" si="3"/>
+      <c r="Q18" s="62">
+        <f t="shared" ref="P18:R22" si="3">J2*Q11</f>
         <v>4.1198979591836743E-2</v>
       </c>
-      <c r="R18" s="71">
+      <c r="R18" s="62">
         <f t="shared" si="3"/>
         <v>-2.5091107871720093E-2</v>
       </c>
-      <c r="S18" s="71">
-        <f t="shared" si="3"/>
+      <c r="S18" s="62">
+        <f>L2*S11</f>
         <v>-0.12607507288629732</v>
       </c>
-      <c r="T18" s="72">
+      <c r="T18" s="63">
         <f>SUM(P18:S18)</f>
         <v>-3.7172011661807502E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="26" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="O19" s="57">
+    <row r="19" spans="1:27" s="17" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="121"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="121"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="121"/>
+      <c r="O19" s="48">
         <v>-1.4285714285714299</v>
       </c>
-      <c r="P19" s="71">
+      <c r="P19" s="62">
         <f t="shared" si="3"/>
         <v>6.8513119533527692E-2</v>
       </c>
-      <c r="Q19" s="71">
+      <c r="Q19" s="62">
         <f t="shared" si="3"/>
         <v>3.4620991253644318E-2</v>
       </c>
-      <c r="R19" s="71">
+      <c r="R19" s="62">
         <f t="shared" si="3"/>
         <v>-1.967930029154517E-2</v>
       </c>
-      <c r="S19" s="71">
-        <f t="shared" si="3"/>
+      <c r="S19" s="62">
+        <f>L3*S12</f>
         <v>-9.4387755102040768E-2</v>
       </c>
-      <c r="T19" s="72">
+      <c r="T19" s="63">
         <f>SUM(P19:S19)</f>
         <v>-1.0932944606413933E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="26" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:27" s="17" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="O20" s="57">
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="121"/>
+      <c r="O20" s="48">
         <v>-0.42857142857142799</v>
       </c>
-      <c r="P20" s="71">
+      <c r="P20" s="62">
         <f t="shared" si="3"/>
         <v>2.8261661807580163E-2</v>
       </c>
-      <c r="Q20" s="71">
+      <c r="Q20" s="62">
         <f t="shared" si="3"/>
         <v>1.3502186588921283E-2</v>
       </c>
-      <c r="R20" s="71">
+      <c r="R20" s="62">
         <f t="shared" si="3"/>
         <v>-7.3797376093294358E-3</v>
       </c>
-      <c r="S20" s="71">
-        <f t="shared" si="3"/>
+      <c r="S20" s="62">
+        <f>L4*S13</f>
         <v>-3.438411078717199E-2</v>
       </c>
-      <c r="T20" s="72">
+      <c r="T20" s="63">
         <f>SUM(P20:S20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="26" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="O21" s="57">
+    <row r="21" spans="1:27" s="17" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="121"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="121"/>
+      <c r="O21" s="48">
         <v>0.57142857142857195</v>
       </c>
-      <c r="P21" s="71">
+      <c r="P21" s="62">
         <f t="shared" si="3"/>
         <v>-4.7959183673469408E-2</v>
       </c>
-      <c r="Q21" s="71">
+      <c r="Q21" s="62">
         <f t="shared" si="3"/>
         <v>-2.2157434402332376E-2</v>
       </c>
-      <c r="R21" s="71">
+      <c r="R21" s="62">
         <f t="shared" si="3"/>
         <v>1.1807580174927107E-2</v>
       </c>
-      <c r="S21" s="71">
-        <f t="shared" si="3"/>
+      <c r="S21" s="62">
+        <f>L5*S14</f>
         <v>5.393586005830904E-2</v>
       </c>
-      <c r="T21" s="72">
+      <c r="T21" s="63">
         <f>SUM(P21:S21)</f>
         <v>-4.3731778425656412E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="26" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:27" s="17" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="O22" s="63">
+      <c r="B22" s="125"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="125"/>
+      <c r="O22" s="54">
         <v>1.5714285714285701</v>
       </c>
-      <c r="P22" s="74">
+      <c r="P22" s="65">
         <f t="shared" si="3"/>
         <v>-0.16014941690962103</v>
       </c>
-      <c r="Q22" s="74">
+      <c r="Q22" s="65">
         <f t="shared" si="3"/>
         <v>-7.2357871720116637E-2</v>
       </c>
-      <c r="R22" s="74">
+      <c r="R22" s="65">
         <f t="shared" si="3"/>
         <v>3.7882653061224458E-2</v>
       </c>
-      <c r="S22" s="74">
-        <f t="shared" si="3"/>
+      <c r="S22" s="65">
+        <f>L6*S15</f>
         <v>0.17057215743440232</v>
       </c>
-      <c r="T22" s="75">
+      <c r="T22" s="66">
         <f>SUM(P22:S22)</f>
         <v>-2.4052478134110905E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="26" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="O23" s="1" t="s">
+    <row r="23" spans="1:27" s="17" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="125"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="125"/>
+      <c r="O23" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="76">
+      <c r="P23" s="126"/>
+      <c r="Q23" s="126"/>
+      <c r="R23" s="126"/>
+      <c r="S23" s="126"/>
+      <c r="T23" s="113">
         <f>SUM(T18:T22)</f>
         <v>-7.6530612244897989E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="26" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:27" s="17" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="78"/>
-      <c r="Q24" s="78" t="s">
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="121"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="121"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="R24" s="78"/>
-      <c r="S24" s="78"/>
-      <c r="T24" s="79">
+      <c r="R24" s="68"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="69">
         <f>T23/((M11*M14))</f>
         <v>-5.145108883232586E-2</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="67"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
     </row>
     <row r="26" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
     </row>
     <row r="27" spans="1:27" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="73"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
     </row>
     <row r="28" spans="1:27" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="73"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="142" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
     </row>
     <row r="29" spans="1:27" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="73"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
     </row>
     <row r="30" spans="1:27" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="73"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -4704,4 +6613,1482 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE8FC63-DED5-43DD-8E7B-6AC5DA7A023C}">
+  <dimension ref="A1:AE36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="30" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="70">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="2">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2">
+        <v>2</v>
+      </c>
+      <c r="L1" s="2">
+        <v>3</v>
+      </c>
+      <c r="M1" s="2">
+        <v>4</v>
+      </c>
+      <c r="N1" s="70">
+        <v>5</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="2">
+        <v>1</v>
+      </c>
+      <c r="S1" s="2">
+        <v>2</v>
+      </c>
+      <c r="T1" s="2">
+        <v>3</v>
+      </c>
+      <c r="U1" s="2">
+        <v>4</v>
+      </c>
+      <c r="V1" s="70">
+        <v>5</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD1" s="70">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <f>2*$A2+5*B$1</f>
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <f>2*$A2+5*C$1</f>
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" ref="D2:F7" si="0">2*$A2+5*D$1</f>
+        <v>17</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="G2" s="7">
+        <f t="shared" ref="G2:G7" si="1">SUM(B2:F2)</f>
+        <v>85</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="72">
+        <f t="array" ref="J2:N7">(1/$G$8)*(B2:F7)</f>
+        <v>1.0606060606060607E-2</v>
+      </c>
+      <c r="K2" s="72">
+        <v>1.8181818181818181E-2</v>
+      </c>
+      <c r="L2" s="72">
+        <v>2.5757575757575757E-2</v>
+      </c>
+      <c r="M2" s="72">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="N2" s="72">
+        <v>4.0909090909090909E-2</v>
+      </c>
+      <c r="O2" s="34">
+        <f t="shared" ref="O2:O7" si="2">SUM(J2:N2)</f>
+        <v>0.12878787878787878</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>1</v>
+      </c>
+      <c r="R2" s="76">
+        <f t="array" ref="R2:V7">(1/$G$8)*(B2:F7)</f>
+        <v>1.0606060606060607E-2</v>
+      </c>
+      <c r="S2" s="76">
+        <v>1.8181818181818181E-2</v>
+      </c>
+      <c r="T2" s="73">
+        <v>2.5757575757575757E-2</v>
+      </c>
+      <c r="U2" s="76">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="V2" s="76">
+        <v>4.0909090909090909E-2</v>
+      </c>
+      <c r="W2" s="74">
+        <f t="shared" ref="W2:W7" si="3">SUM(R2:V2)</f>
+        <v>0.12878787878787878</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="76">
+        <f>$AE2*Z$8</f>
+        <v>1.4049586776859493E-2</v>
+      </c>
+      <c r="AA2" s="76">
+        <f>$AE2*AA$8</f>
+        <v>1.990358126721763E-2</v>
+      </c>
+      <c r="AB2" s="73">
+        <f t="shared" ref="AB2:AC7" si="4">$AE2*AB$8</f>
+        <v>2.5757575757575757E-2</v>
+      </c>
+      <c r="AC2" s="76">
+        <f t="shared" si="4"/>
+        <v>3.1611570247933825E-2</v>
+      </c>
+      <c r="AD2" s="76">
+        <f t="shared" ref="AD2:AD7" si="5">$AE2*AD$8</f>
+        <v>3.7465564738292011E-2</v>
+      </c>
+      <c r="AE2" s="74">
+        <v>0.12878787878787878</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <f>2*$A3+5*B$1</f>
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C7" si="6">2*$A3+5*C$1</f>
+        <v>14</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="I3" s="6">
+        <v>2</v>
+      </c>
+      <c r="J3" s="72">
+        <v>1.3636363636363636E-2</v>
+      </c>
+      <c r="K3" s="72">
+        <v>2.1212121212121213E-2</v>
+      </c>
+      <c r="L3" s="72">
+        <v>2.8787878787878789E-2</v>
+      </c>
+      <c r="M3" s="72">
+        <v>3.6363636363636362E-2</v>
+      </c>
+      <c r="N3" s="72">
+        <v>4.3939393939393938E-2</v>
+      </c>
+      <c r="O3" s="34">
+        <f t="shared" si="2"/>
+        <v>0.14393939393939395</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>2</v>
+      </c>
+      <c r="R3" s="76">
+        <v>1.3636363636363636E-2</v>
+      </c>
+      <c r="S3" s="76">
+        <v>2.1212121212121213E-2</v>
+      </c>
+      <c r="T3" s="73">
+        <v>2.8787878787878789E-2</v>
+      </c>
+      <c r="U3" s="76">
+        <v>3.6363636363636362E-2</v>
+      </c>
+      <c r="V3" s="76">
+        <v>4.3939393939393938E-2</v>
+      </c>
+      <c r="W3" s="74">
+        <f t="shared" si="3"/>
+        <v>0.14393939393939395</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="76">
+        <f>AE3*$Z$8</f>
+        <v>1.5702479338842962E-2</v>
+      </c>
+      <c r="AA3" s="76">
+        <f t="shared" ref="AA3:AA7" si="7">$AE3*AA$8</f>
+        <v>2.2245179063360883E-2</v>
+      </c>
+      <c r="AB3" s="73">
+        <f>$AE3*AB$8</f>
+        <v>2.8787878787878793E-2</v>
+      </c>
+      <c r="AC3" s="76">
+        <f>$AE3*AC$8</f>
+        <v>3.5330578512396633E-2</v>
+      </c>
+      <c r="AD3" s="76">
+        <f t="shared" si="5"/>
+        <v>4.1873278236914599E-2</v>
+      </c>
+      <c r="AE3" s="74">
+        <v>0.14393939393939395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <f>2*$A4+5*B$1</f>
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="I4" s="6">
+        <v>3</v>
+      </c>
+      <c r="J4" s="72">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="K4" s="72">
+        <v>2.4242424242424242E-2</v>
+      </c>
+      <c r="L4" s="72">
+        <v>3.1818181818181815E-2</v>
+      </c>
+      <c r="M4" s="72">
+        <v>3.9393939393939391E-2</v>
+      </c>
+      <c r="N4" s="72">
+        <v>4.6969696969696967E-2</v>
+      </c>
+      <c r="O4" s="34">
+        <f t="shared" si="2"/>
+        <v>0.15909090909090909</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>3</v>
+      </c>
+      <c r="R4" s="76">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="S4" s="76">
+        <v>2.4242424242424242E-2</v>
+      </c>
+      <c r="T4" s="73">
+        <v>3.1818181818181815E-2</v>
+      </c>
+      <c r="U4" s="76">
+        <v>3.9393939393939391E-2</v>
+      </c>
+      <c r="V4" s="76">
+        <v>4.6969696969696967E-2</v>
+      </c>
+      <c r="W4" s="74">
+        <f t="shared" si="3"/>
+        <v>0.15909090909090909</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="76">
+        <f>AE4*$Z$8</f>
+        <v>1.7355371900826432E-2</v>
+      </c>
+      <c r="AA4" s="76">
+        <f t="shared" si="7"/>
+        <v>2.4586776859504132E-2</v>
+      </c>
+      <c r="AB4" s="73">
+        <f>$AE4*AB$8</f>
+        <v>3.1818181818181822E-2</v>
+      </c>
+      <c r="AC4" s="76">
+        <f t="shared" si="4"/>
+        <v>3.9049586776859435E-2</v>
+      </c>
+      <c r="AD4" s="76">
+        <f t="shared" si="5"/>
+        <v>4.6280991735537187E-2</v>
+      </c>
+      <c r="AE4" s="74">
+        <v>0.15909090909090909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <f>2*$A5+5*B$1</f>
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="I5" s="6">
+        <v>4</v>
+      </c>
+      <c r="J5" s="72">
+        <v>1.9696969696969695E-2</v>
+      </c>
+      <c r="K5" s="72">
+        <v>2.7272727272727271E-2</v>
+      </c>
+      <c r="L5" s="72">
+        <v>3.4848484848484851E-2</v>
+      </c>
+      <c r="M5" s="72">
+        <v>4.2424242424242427E-2</v>
+      </c>
+      <c r="N5" s="72">
+        <v>0.05</v>
+      </c>
+      <c r="O5" s="34">
+        <f t="shared" si="2"/>
+        <v>0.17424242424242425</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>4</v>
+      </c>
+      <c r="R5" s="76">
+        <v>1.9696969696969695E-2</v>
+      </c>
+      <c r="S5" s="76">
+        <v>2.7272727272727271E-2</v>
+      </c>
+      <c r="T5" s="73">
+        <v>3.4848484848484851E-2</v>
+      </c>
+      <c r="U5" s="76">
+        <v>4.2424242424242427E-2</v>
+      </c>
+      <c r="V5" s="76">
+        <v>0.05</v>
+      </c>
+      <c r="W5" s="74">
+        <f t="shared" si="3"/>
+        <v>0.17424242424242425</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="76">
+        <f>AE5*$Z$8</f>
+        <v>1.9008264462809902E-2</v>
+      </c>
+      <c r="AA5" s="76">
+        <f t="shared" si="7"/>
+        <v>2.6928374655647385E-2</v>
+      </c>
+      <c r="AB5" s="73">
+        <f>$AE5*AB$8</f>
+        <v>3.4848484848484851E-2</v>
+      </c>
+      <c r="AC5" s="76">
+        <f>$AE5*AC$8</f>
+        <v>4.2768595041322237E-2</v>
+      </c>
+      <c r="AD5" s="76">
+        <f t="shared" si="5"/>
+        <v>5.0688705234159782E-2</v>
+      </c>
+      <c r="AE5" s="74">
+        <v>0.17424242424242425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <f>2*$A6+5*B$1</f>
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E6" s="1">
+        <f>2*$A6+5*E$1</f>
+        <v>30</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="I6" s="6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="72">
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="K6" s="72">
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="L6" s="72">
+        <v>3.787878787878788E-2</v>
+      </c>
+      <c r="M6" s="72">
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="N6" s="72">
+        <v>5.3030303030303032E-2</v>
+      </c>
+      <c r="O6" s="34">
+        <f t="shared" si="2"/>
+        <v>0.18939393939393939</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>5</v>
+      </c>
+      <c r="R6" s="76">
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="S6" s="76">
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="T6" s="73">
+        <v>3.787878787878788E-2</v>
+      </c>
+      <c r="U6" s="76">
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="V6" s="76">
+        <v>5.3030303030303032E-2</v>
+      </c>
+      <c r="W6" s="74">
+        <f t="shared" si="3"/>
+        <v>0.18939393939393939</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="76">
+        <f>AE6*$Z$8</f>
+        <v>2.0661157024793372E-2</v>
+      </c>
+      <c r="AA6" s="76">
+        <f t="shared" si="7"/>
+        <v>2.9269972451790631E-2</v>
+      </c>
+      <c r="AB6" s="73">
+        <f t="shared" si="4"/>
+        <v>3.787878787878788E-2</v>
+      </c>
+      <c r="AC6" s="76">
+        <f t="shared" si="4"/>
+        <v>4.6487603305785039E-2</v>
+      </c>
+      <c r="AD6" s="76">
+        <f t="shared" si="5"/>
+        <v>5.5096418732782364E-2</v>
+      </c>
+      <c r="AE6" s="74">
+        <v>0.18939393939393939</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="71">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <f>2*$A7+5*B$1</f>
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F7" s="1">
+        <f>2*$A7+5*F$1</f>
+        <v>37</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="I7" s="71">
+        <v>6</v>
+      </c>
+      <c r="J7" s="72">
+        <v>2.5757575757575757E-2</v>
+      </c>
+      <c r="K7" s="72">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L7" s="72">
+        <v>4.0909090909090909E-2</v>
+      </c>
+      <c r="M7" s="72">
+        <v>4.8484848484848485E-2</v>
+      </c>
+      <c r="N7" s="72">
+        <v>5.6060606060606061E-2</v>
+      </c>
+      <c r="O7" s="34">
+        <f t="shared" si="2"/>
+        <v>0.20454545454545456</v>
+      </c>
+      <c r="Q7" s="71">
+        <v>6</v>
+      </c>
+      <c r="R7" s="76">
+        <v>2.5757575757575757E-2</v>
+      </c>
+      <c r="S7" s="76">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="T7" s="73">
+        <v>4.0909090909090909E-2</v>
+      </c>
+      <c r="U7" s="76">
+        <v>4.8484848484848485E-2</v>
+      </c>
+      <c r="V7" s="76">
+        <v>5.6060606060606061E-2</v>
+      </c>
+      <c r="W7" s="74">
+        <f t="shared" si="3"/>
+        <v>0.20454545454545456</v>
+      </c>
+      <c r="Y7" s="71">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="76">
+        <f>AE7*$Z$8</f>
+        <v>2.2314049586776841E-2</v>
+      </c>
+      <c r="AA7" s="76">
+        <f t="shared" si="7"/>
+        <v>3.1611570247933887E-2</v>
+      </c>
+      <c r="AB7" s="73">
+        <f t="shared" si="4"/>
+        <v>4.0909090909090916E-2</v>
+      </c>
+      <c r="AC7" s="76">
+        <f t="shared" si="4"/>
+        <v>5.0206611570247847E-2</v>
+      </c>
+      <c r="AD7" s="76">
+        <f t="shared" si="5"/>
+        <v>5.9504132231404959E-2</v>
+      </c>
+      <c r="AE7" s="74">
+        <v>0.20454545454545456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="14">
+        <f t="shared" ref="B8:G8" si="8">SUM(B2:B7)</f>
+        <v>72</v>
+      </c>
+      <c r="C8" s="14">
+        <f t="shared" si="8"/>
+        <v>102</v>
+      </c>
+      <c r="D8" s="14">
+        <f t="shared" si="8"/>
+        <v>132</v>
+      </c>
+      <c r="E8" s="14">
+        <f t="shared" si="8"/>
+        <v>162</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="8"/>
+        <v>192</v>
+      </c>
+      <c r="G8" s="14">
+        <f t="shared" si="8"/>
+        <v>660</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="23">
+        <f t="shared" ref="J8:O8" si="9">SUM(J2:J7)</f>
+        <v>0.1090909090909091</v>
+      </c>
+      <c r="K8" s="23">
+        <f t="shared" si="9"/>
+        <v>0.15454545454545454</v>
+      </c>
+      <c r="L8" s="23">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="M8" s="23">
+        <f t="shared" si="9"/>
+        <v>0.24545454545454545</v>
+      </c>
+      <c r="N8" s="23">
+        <f t="shared" si="9"/>
+        <v>0.29090909090909089</v>
+      </c>
+      <c r="O8" s="23">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="75">
+        <f t="shared" ref="R8:W8" si="10">SUM(R2:R7)</f>
+        <v>0.1090909090909091</v>
+      </c>
+      <c r="S8" s="75">
+        <f t="shared" si="10"/>
+        <v>0.15454545454545454</v>
+      </c>
+      <c r="T8" s="75">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="U8" s="75">
+        <f t="shared" si="10"/>
+        <v>0.24545454545454545</v>
+      </c>
+      <c r="V8" s="75">
+        <f t="shared" si="10"/>
+        <v>0.29090909090909089</v>
+      </c>
+      <c r="W8" s="16">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Y8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="75">
+        <v>0.109090909090909</v>
+      </c>
+      <c r="AA8" s="75">
+        <v>0.15454545454545454</v>
+      </c>
+      <c r="AB8" s="75">
+        <v>0.2</v>
+      </c>
+      <c r="AC8" s="75">
+        <v>0.24545454545454501</v>
+      </c>
+      <c r="AD8" s="75">
+        <v>0.29090909090909089</v>
+      </c>
+      <c r="AE8" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q10" s="141" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" s="141"/>
+      <c r="S10" s="141"/>
+      <c r="T10" s="141"/>
+      <c r="U10" s="141"/>
+      <c r="V10" s="141"/>
+      <c r="W10" s="141"/>
+      <c r="X10" s="141"/>
+      <c r="Y10" s="141"/>
+      <c r="Z10" s="141"/>
+      <c r="AA10" s="141"/>
+      <c r="AB10" s="141"/>
+      <c r="AC10" s="141"/>
+      <c r="AD10" s="141"/>
+      <c r="AE10" s="141"/>
+    </row>
+    <row r="12" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="81">
+        <f>J$1*J$8</f>
+        <v>0.1090909090909091</v>
+      </c>
+      <c r="K12" s="80">
+        <f>K$1*K$8</f>
+        <v>0.30909090909090908</v>
+      </c>
+      <c r="L12" s="80">
+        <f>L$1*L$8</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="M12" s="80">
+        <f>M$1*M$8</f>
+        <v>0.98181818181818181</v>
+      </c>
+      <c r="N12" s="82">
+        <f>N$1*N$8</f>
+        <v>1.4545454545454546</v>
+      </c>
+      <c r="O12" s="77">
+        <f>SUM(J12:N12)</f>
+        <v>3.4545454545454546</v>
+      </c>
+      <c r="Q12" s="127" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="138" t="s">
+        <v>16</v>
+      </c>
+      <c r="S12" s="139"/>
+      <c r="T12" s="139"/>
+      <c r="U12" s="139"/>
+      <c r="V12" s="140"/>
+    </row>
+    <row r="13" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="83">
+        <f>(J1-$O$12)^2*J$8</f>
+        <v>0.65725018782870026</v>
+      </c>
+      <c r="K13" s="84">
+        <f>(K1-$O$12)^2*K$8</f>
+        <v>0.32697220135236665</v>
+      </c>
+      <c r="L13" s="84">
+        <f>(L1-$O$12)^2*L$8</f>
+        <v>4.1322314049586785E-2</v>
+      </c>
+      <c r="M13" s="84">
+        <f>(M1-$O$12)^2*M$8</f>
+        <v>7.3027798647633341E-2</v>
+      </c>
+      <c r="N13" s="85">
+        <f>(N1-$O$12)^2*N$8</f>
+        <v>0.69481592787377899</v>
+      </c>
+      <c r="O13" s="77">
+        <f>SUM(J13:N13)</f>
+        <v>1.7933884297520661</v>
+      </c>
+      <c r="Q13" s="137"/>
+      <c r="R13" s="99">
+        <f>(J1-$O$12)</f>
+        <v>-2.4545454545454546</v>
+      </c>
+      <c r="S13" s="100">
+        <f t="shared" ref="S13:T13" si="11">(K1-$O$12)</f>
+        <v>-1.4545454545454546</v>
+      </c>
+      <c r="T13" s="100">
+        <f t="shared" si="11"/>
+        <v>-0.45454545454545459</v>
+      </c>
+      <c r="U13" s="100">
+        <f>(M1-$O$12)</f>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="V13" s="101">
+        <f>(N1-$O$12)</f>
+        <v>1.5454545454545454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="118"/>
+      <c r="N14" s="118"/>
+      <c r="O14" s="79">
+        <f>SQRT(O13)</f>
+        <v>1.3391745329687488</v>
+      </c>
+      <c r="Q14" s="96">
+        <f t="shared" ref="Q14:Q19" si="12">($I2-$O$15)</f>
+        <v>-2.7651515151515156</v>
+      </c>
+      <c r="R14" s="95">
+        <f t="shared" ref="R14:V19" si="13">$Q14*R$13</f>
+        <v>6.7871900826446296</v>
+      </c>
+      <c r="S14" s="103">
+        <f t="shared" si="13"/>
+        <v>4.0220385674931141</v>
+      </c>
+      <c r="T14" s="103">
+        <f t="shared" si="13"/>
+        <v>1.256887052341598</v>
+      </c>
+      <c r="U14" s="103">
+        <f t="shared" si="13"/>
+        <v>-1.5082644628099175</v>
+      </c>
+      <c r="V14" s="104">
+        <f t="shared" si="13"/>
+        <v>-4.2734159779614327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="122" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="81">
+        <f>$I2*$O2</f>
+        <v>0.12878787878787878</v>
+      </c>
+      <c r="J15" s="80">
+        <f>$I3*$O3</f>
+        <v>0.2878787878787879</v>
+      </c>
+      <c r="K15" s="80">
+        <f>$I4*$O4</f>
+        <v>0.47727272727272729</v>
+      </c>
+      <c r="L15" s="80">
+        <f>$I5*$O5</f>
+        <v>0.69696969696969702</v>
+      </c>
+      <c r="M15" s="80">
+        <f>$I6*$O6</f>
+        <v>0.94696969696969702</v>
+      </c>
+      <c r="N15" s="82">
+        <f>$I7*$O7</f>
+        <v>1.2272727272727273</v>
+      </c>
+      <c r="O15" s="78">
+        <f>SUM(I15:N15)</f>
+        <v>3.7651515151515156</v>
+      </c>
+      <c r="Q15" s="97">
+        <f t="shared" si="12"/>
+        <v>-1.7651515151515156</v>
+      </c>
+      <c r="R15" s="105">
+        <f t="shared" si="13"/>
+        <v>4.3326446280991746</v>
+      </c>
+      <c r="S15" s="102">
+        <f t="shared" si="13"/>
+        <v>2.567493112947659</v>
+      </c>
+      <c r="T15" s="102">
+        <f t="shared" si="13"/>
+        <v>0.80234159779614356</v>
+      </c>
+      <c r="U15" s="102">
+        <f t="shared" si="13"/>
+        <v>-0.96280991735537202</v>
+      </c>
+      <c r="V15" s="106">
+        <f t="shared" si="13"/>
+        <v>-2.7279614325068877</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="86">
+        <f>($I2-$O$15)^2*$O2</f>
+        <v>0.98472022219439603</v>
+      </c>
+      <c r="J16" s="87">
+        <f>($I3-$O$15)^2*$O3</f>
+        <v>0.44848058755600101</v>
+      </c>
+      <c r="K16" s="87">
+        <f>($I4-$O$15)^2*$O4</f>
+        <v>9.3140861090241361E-2</v>
+      </c>
+      <c r="L16" s="87">
+        <f>($I5-$O$15)^2*$O5</f>
+        <v>9.610133706208052E-3</v>
+      </c>
+      <c r="M16" s="87">
+        <f>($I6-$O$15)^2*$O6</f>
+        <v>0.28879749631299201</v>
+      </c>
+      <c r="N16" s="88">
+        <f>($I7-$O$15)^2*$O7</f>
+        <v>1.0216120398196842</v>
+      </c>
+      <c r="O16" s="78">
+        <f>SUM(I16:N16)</f>
+        <v>2.8463613406795227</v>
+      </c>
+      <c r="Q16" s="97">
+        <f t="shared" si="12"/>
+        <v>-0.76515151515151558</v>
+      </c>
+      <c r="R16" s="105">
+        <f t="shared" si="13"/>
+        <v>1.87809917355372</v>
+      </c>
+      <c r="S16" s="102">
+        <f t="shared" si="13"/>
+        <v>1.1129476584022044</v>
+      </c>
+      <c r="T16" s="102">
+        <f t="shared" si="13"/>
+        <v>0.34779614325068892</v>
+      </c>
+      <c r="U16" s="102">
+        <f t="shared" si="13"/>
+        <v>-0.41735537190082667</v>
+      </c>
+      <c r="V16" s="106">
+        <f t="shared" si="13"/>
+        <v>-1.1825068870523423</v>
+      </c>
+    </row>
+    <row r="17" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="122"/>
+      <c r="M17" s="122"/>
+      <c r="N17" s="122"/>
+      <c r="O17" s="78">
+        <f>SQRT(O16)</f>
+        <v>1.6871162795372234</v>
+      </c>
+      <c r="Q17" s="97">
+        <f t="shared" si="12"/>
+        <v>0.23484848484848442</v>
+      </c>
+      <c r="R17" s="105">
+        <f t="shared" si="13"/>
+        <v>-0.57644628099173445</v>
+      </c>
+      <c r="S17" s="102">
+        <f t="shared" si="13"/>
+        <v>-0.34159779614325009</v>
+      </c>
+      <c r="T17" s="102">
+        <f t="shared" si="13"/>
+        <v>-0.10674931129476566</v>
+      </c>
+      <c r="U17" s="102">
+        <f t="shared" si="13"/>
+        <v>0.12809917355371878</v>
+      </c>
+      <c r="V17" s="106">
+        <f t="shared" si="13"/>
+        <v>0.36294765840220317</v>
+      </c>
+    </row>
+    <row r="18" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="123" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="115">
+        <f>W29</f>
+        <v>-0.12052341597796143</v>
+      </c>
+      <c r="Q18" s="97">
+        <f t="shared" si="12"/>
+        <v>1.2348484848484844</v>
+      </c>
+      <c r="R18" s="105">
+        <f t="shared" si="13"/>
+        <v>-3.0309917355371891</v>
+      </c>
+      <c r="S18" s="102">
+        <f t="shared" si="13"/>
+        <v>-1.7961432506887047</v>
+      </c>
+      <c r="T18" s="102">
+        <f t="shared" si="13"/>
+        <v>-0.5612947658402202</v>
+      </c>
+      <c r="U18" s="102">
+        <f t="shared" si="13"/>
+        <v>0.67355371900826422</v>
+      </c>
+      <c r="V18" s="106">
+        <f t="shared" si="13"/>
+        <v>1.9084022038567485</v>
+      </c>
+    </row>
+    <row r="19" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="124" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="124"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="116">
+        <f>W30</f>
+        <v>-5.3344449103799083E-2</v>
+      </c>
+      <c r="Q19" s="98">
+        <f t="shared" si="12"/>
+        <v>2.2348484848484844</v>
+      </c>
+      <c r="R19" s="107">
+        <f t="shared" si="13"/>
+        <v>-5.4855371900826437</v>
+      </c>
+      <c r="S19" s="108">
+        <f t="shared" si="13"/>
+        <v>-3.2506887052341593</v>
+      </c>
+      <c r="T19" s="108">
+        <f t="shared" si="13"/>
+        <v>-1.0158402203856749</v>
+      </c>
+      <c r="U19" s="108">
+        <f t="shared" si="13"/>
+        <v>1.2190082644628095</v>
+      </c>
+      <c r="V19" s="109">
+        <f t="shared" si="13"/>
+        <v>3.4538567493112939</v>
+      </c>
+    </row>
+    <row r="21" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q21" s="127" t="s">
+        <v>15</v>
+      </c>
+      <c r="R21" s="129" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="130"/>
+      <c r="T21" s="130"/>
+      <c r="U21" s="130"/>
+      <c r="V21" s="131"/>
+      <c r="W21" s="132" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q22" s="128"/>
+      <c r="R22" s="89">
+        <f>(J1-$O$12)</f>
+        <v>-2.4545454545454546</v>
+      </c>
+      <c r="S22" s="90">
+        <f t="shared" ref="S22:V22" si="14">(K1-$O$12)</f>
+        <v>-1.4545454545454546</v>
+      </c>
+      <c r="T22" s="90">
+        <f t="shared" si="14"/>
+        <v>-0.45454545454545459</v>
+      </c>
+      <c r="U22" s="90">
+        <f t="shared" si="14"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="V22" s="91">
+        <f t="shared" si="14"/>
+        <v>1.5454545454545454</v>
+      </c>
+      <c r="W22" s="133"/>
+    </row>
+    <row r="23" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q23" s="92">
+        <f>($I2-$O$15)</f>
+        <v>-2.7651515151515156</v>
+      </c>
+      <c r="R23" s="102">
+        <f>R14*J2</f>
+        <v>7.1985349361382442E-2</v>
+      </c>
+      <c r="S23" s="102">
+        <f t="shared" ref="S23:U23" si="15">S14*K2</f>
+        <v>7.312797395442025E-2</v>
+      </c>
+      <c r="T23" s="102">
+        <f t="shared" si="15"/>
+        <v>3.2374363469404796E-2</v>
+      </c>
+      <c r="U23" s="102">
+        <f t="shared" si="15"/>
+        <v>-5.027548209366392E-2</v>
+      </c>
+      <c r="V23" s="102">
+        <f>V14*N2</f>
+        <v>-0.17482156273478588</v>
+      </c>
+      <c r="W23" s="110">
+        <f t="shared" ref="W23:W28" si="16">SUM(R23:V23)</f>
+        <v>-4.7609358043242317E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q24" s="93">
+        <f t="shared" ref="Q24:Q28" si="17">($I3-$O$15)</f>
+        <v>-1.7651515151515156</v>
+      </c>
+      <c r="R24" s="102">
+        <f>R15*J3</f>
+        <v>5.9081517655897836E-2</v>
+      </c>
+      <c r="S24" s="102">
+        <f t="shared" ref="S24:S27" si="18">S15*K3</f>
+        <v>5.4461975123132167E-2</v>
+      </c>
+      <c r="T24" s="102">
+        <f t="shared" ref="T24:T27" si="19">T15*L3</f>
+        <v>2.3097712663828377E-2</v>
+      </c>
+      <c r="U24" s="102">
+        <f t="shared" ref="U24:U26" si="20">U15*M3</f>
+        <v>-3.501126972201353E-2</v>
+      </c>
+      <c r="V24" s="102">
+        <f t="shared" ref="V24:V27" si="21">V15*N3</f>
+        <v>-0.11986497203439354</v>
+      </c>
+      <c r="W24" s="111">
+        <f t="shared" si="16"/>
+        <v>-1.8235036313548697E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q25" s="93">
+        <f t="shared" si="17"/>
+        <v>-0.76515151515151558</v>
+      </c>
+      <c r="R25" s="102">
+        <f t="shared" ref="R25:R27" si="22">R16*J4</f>
+        <v>3.1301652892562003E-2</v>
+      </c>
+      <c r="S25" s="102">
+        <f>S16*K4</f>
+        <v>2.6980549294598897E-2</v>
+      </c>
+      <c r="T25" s="102">
+        <f t="shared" si="19"/>
+        <v>1.1066240921612827E-2</v>
+      </c>
+      <c r="U25" s="102">
+        <f t="shared" si="20"/>
+        <v>-1.64412722263962E-2</v>
+      </c>
+      <c r="V25" s="102">
+        <f t="shared" si="21"/>
+        <v>-5.5541990149428198E-2</v>
+      </c>
+      <c r="W25" s="111">
+        <f t="shared" si="16"/>
+        <v>-2.6348192670506629E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q26" s="93">
+        <f t="shared" si="17"/>
+        <v>0.23484848484848442</v>
+      </c>
+      <c r="R26" s="102">
+        <f t="shared" si="22"/>
+        <v>-1.1354244928625072E-2</v>
+      </c>
+      <c r="S26" s="102">
+        <f t="shared" si="18"/>
+        <v>-9.316303531179548E-3</v>
+      </c>
+      <c r="T26" s="102">
+        <f>T17*L5</f>
+        <v>-3.7200517572418337E-3</v>
+      </c>
+      <c r="U26" s="102">
+        <f t="shared" si="20"/>
+        <v>5.4345103931880698E-3</v>
+      </c>
+      <c r="V26" s="102">
+        <f t="shared" si="21"/>
+        <v>1.8147382920110158E-2</v>
+      </c>
+      <c r="W26" s="111">
+        <f t="shared" si="16"/>
+        <v>-8.0870690374822835E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q27" s="93">
+        <f t="shared" si="17"/>
+        <v>1.2348484848484844</v>
+      </c>
+      <c r="R27" s="102">
+        <f t="shared" si="22"/>
+        <v>-6.8886175807663388E-2</v>
+      </c>
+      <c r="S27" s="102">
+        <f t="shared" si="18"/>
+        <v>-5.4428583354203176E-2</v>
+      </c>
+      <c r="T27" s="102">
+        <f t="shared" si="19"/>
+        <v>-2.1261165372735615E-2</v>
+      </c>
+      <c r="U27" s="102">
+        <f>U18*M6</f>
+        <v>3.0616078136739285E-2</v>
+      </c>
+      <c r="V27" s="102">
+        <f t="shared" si="21"/>
+        <v>0.10120314717422152</v>
+      </c>
+      <c r="W27" s="111">
+        <f t="shared" si="16"/>
+        <v>-1.2756699223641393E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q28" s="94">
+        <f t="shared" si="17"/>
+        <v>2.2348484848484844</v>
+      </c>
+      <c r="R28" s="102">
+        <f t="shared" ref="R28" si="23">R19*J7</f>
+        <v>-0.14129413974455293</v>
+      </c>
+      <c r="S28" s="102">
+        <f t="shared" ref="S28" si="24">S19*K7</f>
+        <v>-0.10835629017447197</v>
+      </c>
+      <c r="T28" s="102">
+        <f t="shared" ref="T28" si="25">T19*L7</f>
+        <v>-4.1557099924868515E-2</v>
+      </c>
+      <c r="U28" s="102">
+        <f t="shared" ref="U28" si="26">U19*M7</f>
+        <v>5.9103431004257433E-2</v>
+      </c>
+      <c r="V28" s="102">
+        <f>V19*N7</f>
+        <v>0.19362530261290586</v>
+      </c>
+      <c r="W28" s="112">
+        <f t="shared" si="16"/>
+        <v>-3.8478796226730116E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q29" s="134" t="s">
+        <v>22</v>
+      </c>
+      <c r="R29" s="135"/>
+      <c r="S29" s="135"/>
+      <c r="T29" s="135"/>
+      <c r="U29" s="135"/>
+      <c r="V29" s="135"/>
+      <c r="W29" s="114">
+        <f>SUM(W23:W28)</f>
+        <v>-0.12052341597796143</v>
+      </c>
+    </row>
+    <row r="30" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q30" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="R30" s="124"/>
+      <c r="S30" s="124"/>
+      <c r="T30" s="124"/>
+      <c r="U30" s="124"/>
+      <c r="V30" s="136"/>
+      <c r="W30" s="117">
+        <f>W29/((O14*O17))</f>
+        <v>-5.3344449103799083E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="13:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:N14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="Q29:V29"/>
+    <mergeCell ref="Q30:V30"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="F17:N17"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:V12"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:V21"/>
+    <mergeCell ref="W21:W22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/assets/BidimensionalDistribuciónProb.xlsx
+++ b/assets/BidimensionalDistribuciónProb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Universidad\Sexto Semestre\Probabilidad\MapaHtml\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3843F8E-B98D-46F3-AA4B-0C51F353804D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8B2981-86E2-4CE9-BEB7-E6851130ADA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="3555" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XY independientes" sheetId="1" r:id="rId1"/>
@@ -1161,18 +1161,24 @@
     <xf numFmtId="167" fontId="14" fillId="23" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1182,59 +1188,53 @@
     <xf numFmtId="0" fontId="14" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -2506,23 +2506,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx2"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -2617,23 +2600,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx2"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2705,23 +2671,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx2"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2811,6 +2760,1308 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-91F3-44F3-8A9A-C259BA62C045}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-91F3-44F3-8A9A-C259BA62C045}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-91F3-44F3-8A9A-C259BA62C045}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-91F3-44F3-8A9A-C259BA62C045}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-91F3-44F3-8A9A-C259BA62C045}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-91F3-44F3-8A9A-C259BA62C045}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1186942080"/>
+        <c:axId val="1186946240"/>
+        <c:axId val="1189533408"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1186942080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1186946240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1186946240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>f(x,y) = 2x + 5y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1186942080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1189533408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.79105338074104792"/>
+              <c:y val="0.71390204531429713"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1186946240"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2844,6 +4095,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>598715</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>227238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>249010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90983001-A970-48A1-B6BB-5F6A1A16E82A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5816,12 +7103,12 @@
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="118" t="s">
+      <c r="E9" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
       <c r="I9" s="41">
         <f>I$1*I$7</f>
         <v>0.19642857142857142</v>
@@ -5843,15 +7130,15 @@
         <v>2.6785714285714288</v>
       </c>
       <c r="N9" s="17"/>
-      <c r="O9" s="119" t="s">
+      <c r="O9" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="119" t="s">
+      <c r="P9" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="119"/>
+      <c r="Q9" s="123"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="123"/>
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
       <c r="V9" s="17"/>
@@ -5866,12 +7153,12 @@
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="118" t="s">
+      <c r="E10" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
       <c r="I10" s="41">
         <f>(I1-$M$9)^2*I$7</f>
         <v>0.55345754373177858</v>
@@ -5893,7 +7180,7 @@
         <v>1.2181122448979591</v>
       </c>
       <c r="N10" s="17"/>
-      <c r="O10" s="119"/>
+      <c r="O10" s="123"/>
       <c r="P10" s="43">
         <f>(I1-$M$9)</f>
         <v>-1.6785714285714288</v>
@@ -5924,16 +7211,16 @@
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="118" t="s">
+      <c r="E11" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="127"/>
       <c r="M11" s="47">
         <f>SQRT(M10)</f>
         <v>1.103681224311603</v>
@@ -5970,14 +7257,14 @@
     </row>
     <row r="12" spans="1:30" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
-      <c r="B12" s="122" t="s">
+      <c r="B12" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
       <c r="H12" s="50">
         <f>$H2*$M2</f>
         <v>0.11428571428571428</v>
@@ -6034,14 +7321,14 @@
     </row>
     <row r="13" spans="1:30" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
       <c r="H13" s="50">
         <f>($H2-$M$12)^2*$M2</f>
         <v>0.67405247813411062</v>
@@ -6101,16 +7388,16 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="122" t="s">
+      <c r="E14" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="122"/>
-      <c r="L14" s="122"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
       <c r="M14" s="51">
         <f>SQRT(M13)</f>
         <v>1.3477115902938006</v>
@@ -6153,13 +7440,13 @@
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="123" t="s">
+      <c r="H15" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="123"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="125"/>
       <c r="M15" s="53">
         <f>T23</f>
         <v>-7.6530612244897989E-2</v>
@@ -6199,28 +7486,28 @@
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
-      <c r="H16" s="124" t="s">
+      <c r="H16" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="124"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="124"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="126"/>
       <c r="M16" s="57">
         <f>T24</f>
         <v>-5.145108883232586E-2</v>
       </c>
       <c r="N16" s="17"/>
-      <c r="O16" s="120" t="s">
+      <c r="O16" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="P16" s="119" t="s">
+      <c r="P16" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="119"/>
-      <c r="T16" s="120" t="s">
+      <c r="Q16" s="123"/>
+      <c r="R16" s="123"/>
+      <c r="S16" s="123"/>
+      <c r="T16" s="122" t="s">
         <v>24</v>
       </c>
       <c r="U16" s="17"/>
@@ -6248,7 +7535,7 @@
       <c r="L17" s="121"/>
       <c r="M17" s="121"/>
       <c r="N17" s="17"/>
-      <c r="O17" s="120"/>
+      <c r="O17" s="122"/>
       <c r="P17" s="59">
         <v>-1.6785714285714299</v>
       </c>
@@ -6261,7 +7548,7 @@
       <c r="S17" s="61">
         <v>1.3214285714285701</v>
       </c>
-      <c r="T17" s="120"/>
+      <c r="T17" s="122"/>
       <c r="U17" s="17"/>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
@@ -6425,21 +7712,21 @@
       </c>
     </row>
     <row r="22" spans="1:27" s="17" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="125" t="s">
+      <c r="A22" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="125"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
       <c r="O22" s="54">
         <v>1.5714285714285701</v>
       </c>
@@ -6465,26 +7752,26 @@
       </c>
     </row>
     <row r="23" spans="1:27" s="17" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="125"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="125"/>
-      <c r="O23" s="126" t="s">
+      <c r="A23" s="119"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="119"/>
+      <c r="O23" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="126"/>
-      <c r="S23" s="126"/>
+      <c r="P23" s="120"/>
+      <c r="Q23" s="120"/>
+      <c r="R23" s="120"/>
+      <c r="S23" s="120"/>
       <c r="T23" s="113">
         <f>SUM(T18:T22)</f>
         <v>-7.6530612244897989E-2</v>
@@ -6552,7 +7839,7 @@
     </row>
     <row r="28" spans="1:27" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="64"/>
-      <c r="B28" s="142" t="s">
+      <c r="B28" s="118" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="64"/>
@@ -6587,11 +7874,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A22:M23"/>
-    <mergeCell ref="O23:S23"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:L11"/>
     <mergeCell ref="T16:T17"/>
     <mergeCell ref="A17:M19"/>
     <mergeCell ref="A20:M21"/>
@@ -6600,11 +7887,11 @@
     <mergeCell ref="E14:L14"/>
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="H16:L16"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="A22:M23"/>
+    <mergeCell ref="O23:S23"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:S16"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6619,8 +7906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE8FC63-DED5-43DD-8E7B-6AC5DA7A023C}">
   <dimension ref="A1:AE36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="E37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7423,31 +8710,31 @@
       </c>
     </row>
     <row r="10" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q10" s="141" t="s">
+      <c r="Q10" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="R10" s="141"/>
-      <c r="S10" s="141"/>
-      <c r="T10" s="141"/>
-      <c r="U10" s="141"/>
-      <c r="V10" s="141"/>
-      <c r="W10" s="141"/>
-      <c r="X10" s="141"/>
-      <c r="Y10" s="141"/>
-      <c r="Z10" s="141"/>
-      <c r="AA10" s="141"/>
-      <c r="AB10" s="141"/>
-      <c r="AC10" s="141"/>
-      <c r="AD10" s="141"/>
-      <c r="AE10" s="141"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="128"/>
+      <c r="V10" s="128"/>
+      <c r="W10" s="128"/>
+      <c r="X10" s="128"/>
+      <c r="Y10" s="128"/>
+      <c r="Z10" s="128"/>
+      <c r="AA10" s="128"/>
+      <c r="AB10" s="128"/>
+      <c r="AC10" s="128"/>
+      <c r="AD10" s="128"/>
+      <c r="AE10" s="128"/>
     </row>
     <row r="12" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F12" s="118" t="s">
+      <c r="F12" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="81">
         <f>J$1*J$8</f>
         <v>0.1090909090909091</v>
@@ -7472,24 +8759,24 @@
         <f>SUM(J12:N12)</f>
         <v>3.4545454545454546</v>
       </c>
-      <c r="Q12" s="127" t="s">
+      <c r="Q12" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="R12" s="138" t="s">
+      <c r="R12" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="S12" s="139"/>
-      <c r="T12" s="139"/>
-      <c r="U12" s="139"/>
-      <c r="V12" s="140"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="135"/>
+      <c r="U12" s="135"/>
+      <c r="V12" s="136"/>
     </row>
     <row r="13" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F13" s="118" t="s">
+      <c r="F13" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="83">
         <f>(J1-$O$12)^2*J$8</f>
         <v>0.65725018782870026</v>
@@ -7514,7 +8801,7 @@
         <f>SUM(J13:N13)</f>
         <v>1.7933884297520661</v>
       </c>
-      <c r="Q13" s="137"/>
+      <c r="Q13" s="133"/>
       <c r="R13" s="99">
         <f>(J1-$O$12)</f>
         <v>-2.4545454545454546</v>
@@ -7537,17 +8824,17 @@
       </c>
     </row>
     <row r="14" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F14" s="118" t="s">
+      <c r="F14" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="118"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="127"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="127"/>
+      <c r="N14" s="127"/>
       <c r="O14" s="79">
         <f>SQRT(O13)</f>
         <v>1.3391745329687488</v>
@@ -7578,14 +8865,14 @@
       </c>
     </row>
     <row r="15" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="122" t="s">
+      <c r="C15" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
       <c r="I15" s="81">
         <f>$I2*$O2</f>
         <v>0.12878787878787878</v>
@@ -7640,14 +8927,14 @@
       </c>
     </row>
     <row r="16" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="122" t="s">
+      <c r="C16" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="124"/>
       <c r="I16" s="86">
         <f>($I2-$O$15)^2*$O2</f>
         <v>0.98472022219439603</v>
@@ -7702,17 +8989,17 @@
       </c>
     </row>
     <row r="17" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F17" s="122" t="s">
+      <c r="F17" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="122"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="122"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="124"/>
       <c r="O17" s="78">
         <f>SQRT(O16)</f>
         <v>1.6871162795372234</v>
@@ -7743,13 +9030,13 @@
       </c>
     </row>
     <row r="18" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J18" s="123" t="s">
+      <c r="J18" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="123"/>
-      <c r="N18" s="123"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
       <c r="O18" s="115">
         <f>W29</f>
         <v>-0.12052341597796143</v>
@@ -7780,13 +9067,13 @@
       </c>
     </row>
     <row r="19" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J19" s="124" t="s">
+      <c r="J19" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="124"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="124"/>
-      <c r="N19" s="124"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="126"/>
+      <c r="N19" s="126"/>
       <c r="O19" s="116">
         <f>W30</f>
         <v>-5.3344449103799083E-2</v>
@@ -7817,22 +9104,22 @@
       </c>
     </row>
     <row r="21" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q21" s="127" t="s">
+      <c r="Q21" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="R21" s="129" t="s">
+      <c r="R21" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="S21" s="130"/>
-      <c r="T21" s="130"/>
-      <c r="U21" s="130"/>
-      <c r="V21" s="131"/>
-      <c r="W21" s="132" t="s">
+      <c r="S21" s="139"/>
+      <c r="T21" s="139"/>
+      <c r="U21" s="139"/>
+      <c r="V21" s="140"/>
+      <c r="W21" s="141" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q22" s="128"/>
+      <c r="Q22" s="137"/>
       <c r="R22" s="89">
         <f>(J1-$O$12)</f>
         <v>-2.4545454545454546</v>
@@ -7853,7 +9140,7 @@
         <f t="shared" si="14"/>
         <v>1.5454545454545454</v>
       </c>
-      <c r="W22" s="133"/>
+      <c r="W22" s="142"/>
     </row>
     <row r="23" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q23" s="92">
@@ -8036,28 +9323,28 @@
       </c>
     </row>
     <row r="29" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q29" s="134" t="s">
+      <c r="Q29" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="R29" s="135"/>
-      <c r="S29" s="135"/>
-      <c r="T29" s="135"/>
-      <c r="U29" s="135"/>
-      <c r="V29" s="135"/>
+      <c r="R29" s="130"/>
+      <c r="S29" s="130"/>
+      <c r="T29" s="130"/>
+      <c r="U29" s="130"/>
+      <c r="V29" s="130"/>
       <c r="W29" s="114">
         <f>SUM(W23:W28)</f>
         <v>-0.12052341597796143</v>
       </c>
     </row>
     <row r="30" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q30" s="124" t="s">
+      <c r="Q30" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="R30" s="124"/>
-      <c r="S30" s="124"/>
-      <c r="T30" s="124"/>
-      <c r="U30" s="124"/>
-      <c r="V30" s="136"/>
+      <c r="R30" s="126"/>
+      <c r="S30" s="126"/>
+      <c r="T30" s="126"/>
+      <c r="U30" s="126"/>
+      <c r="V30" s="131"/>
       <c r="W30" s="117">
         <f>W29/((O14*O17))</f>
         <v>-5.3344449103799083E-2</v>
@@ -8070,11 +9357,7 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:N14"/>
-    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="W21:W22"/>
     <mergeCell ref="Q29:V29"/>
     <mergeCell ref="Q30:V30"/>
     <mergeCell ref="C16:H16"/>
@@ -8085,7 +9368,11 @@
     <mergeCell ref="J19:N19"/>
     <mergeCell ref="Q21:Q22"/>
     <mergeCell ref="R21:V21"/>
-    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:N14"/>
+    <mergeCell ref="C15:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
